--- a/doc/彦鹏需求0107.xlsx
+++ b/doc/彦鹏需求0107.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12468" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="507">
   <si>
     <t>1 我的想法是抛开你这个表的情况，先以你为维度登记处理下整个的贷款周期内的各种事情，比如合同登记、放款、还款、逾期、提前还款等等</t>
   </si>
@@ -2540,23 +2540,6 @@
   </si>
   <si>
     <t>extension_rate</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>atus</t>
-    </r>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
@@ -4248,8 +4231,74 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4352,72 +4401,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6683,29 +6666,29 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="M1" s="120" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="M1" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="N1" s="121"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
       <c r="W1" s="19" t="s">
         <v>97</v>
       </c>
@@ -6714,18 +6697,18 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="L2" s="66" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="L2" s="75" t="s">
         <v>98</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -6766,18 +6749,18 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="L3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="L3" s="75"/>
       <c r="M3" s="6">
         <v>1</v>
       </c>
@@ -6814,21 +6797,21 @@
       <c r="W3" s="11"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="L4" s="66"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="6">
         <v>2</v>
       </c>
@@ -6865,17 +6848,17 @@
       <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="103"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
-      <c r="L5" s="66"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
+      <c r="L5" s="75"/>
       <c r="M5" s="6">
         <v>3</v>
       </c>
@@ -6911,17 +6894,17 @@
       <c r="W5" s="11"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="104"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="L6" s="66"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="98"/>
+      <c r="L6" s="75"/>
       <c r="M6" s="6">
         <v>4</v>
       </c>
@@ -6955,21 +6938,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="79"/>
-      <c r="L7" s="66"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="101"/>
+      <c r="L7" s="75"/>
       <c r="M7" s="6">
         <v>5</v>
       </c>
@@ -7003,17 +6986,17 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="103"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="82"/>
-      <c r="L8" s="66"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="6">
         <v>6</v>
       </c>
@@ -7049,17 +7032,17 @@
       <c r="W8" s="11"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="103"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="82"/>
-      <c r="L9" s="66"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="104"/>
+      <c r="L9" s="75"/>
       <c r="M9" s="6">
         <v>7</v>
       </c>
@@ -7095,17 +7078,17 @@
       <c r="W9" s="11"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="103"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="82"/>
-      <c r="L10" s="66"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="104"/>
+      <c r="L10" s="75"/>
       <c r="M10" s="6">
         <v>8</v>
       </c>
@@ -7141,17 +7124,17 @@
       <c r="W10" s="11"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="104"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
-      <c r="L11" s="66"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="107"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="6">
         <v>9</v>
       </c>
@@ -7185,21 +7168,21 @@
       <c r="W11" s="11"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="88"/>
-      <c r="L12" s="66"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110"/>
+      <c r="L12" s="75"/>
       <c r="M12" s="6">
         <v>10</v>
       </c>
@@ -7235,17 +7218,17 @@
       <c r="W12" s="11"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="103"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91"/>
-      <c r="L13" s="66"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
+      <c r="L13" s="75"/>
       <c r="M13" s="6">
         <v>11</v>
       </c>
@@ -7281,17 +7264,17 @@
       <c r="W13" s="11"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="103"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91"/>
-      <c r="L14" s="66"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113"/>
+      <c r="L14" s="75"/>
       <c r="M14" s="6">
         <v>12</v>
       </c>
@@ -7327,17 +7310,17 @@
       <c r="W14" s="11"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="103"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="L15" s="66"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="113"/>
+      <c r="L15" s="75"/>
       <c r="M15" s="6">
         <v>13</v>
       </c>
@@ -7371,17 +7354,17 @@
       <c r="W15" s="11"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="103"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91"/>
-      <c r="L16" s="66"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="113"/>
+      <c r="L16" s="75"/>
       <c r="M16" s="6">
         <v>14</v>
       </c>
@@ -7415,17 +7398,17 @@
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="104"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="L17" s="66"/>
+      <c r="A17" s="86"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="116"/>
+      <c r="L17" s="75"/>
       <c r="M17" s="6">
         <v>15</v>
       </c>
@@ -7451,21 +7434,21 @@
       <c r="W17" s="11"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="97"/>
-      <c r="L18" s="66"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="119"/>
+      <c r="L18" s="75"/>
       <c r="M18" s="6">
         <v>16</v>
       </c>
@@ -7491,17 +7474,17 @@
       <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="106"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
-      <c r="L19" s="66"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="122"/>
+      <c r="L19" s="75"/>
       <c r="M19" s="6">
         <v>17</v>
       </c>
@@ -7528,16 +7511,16 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="L20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="L20" s="75"/>
       <c r="M20" s="6"/>
       <c r="N20" s="11"/>
       <c r="O20" s="12"/>
@@ -7560,16 +7543,16 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="1"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="L21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="L21" s="75"/>
       <c r="M21" s="6"/>
       <c r="N21" s="11"/>
       <c r="O21" s="12"/>
@@ -7592,16 +7575,16 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="1"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="L22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="L22" s="75"/>
       <c r="M22" s="6"/>
       <c r="N22" s="11"/>
       <c r="O22" s="12"/>
@@ -7624,16 +7607,16 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="1"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="L23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="L23" s="75"/>
       <c r="M23" s="6"/>
       <c r="N23" s="11"/>
       <c r="O23" s="12"/>
@@ -7656,16 +7639,16 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="1"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="L24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="L24" s="75"/>
       <c r="M24" s="6"/>
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
@@ -7688,16 +7671,16 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="L25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="L25" s="75"/>
       <c r="M25" s="6"/>
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
@@ -7720,16 +7703,16 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="1"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="L26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="L26" s="75"/>
       <c r="M26" s="6" t="s">
         <v>143</v>
       </c>
@@ -7764,115 +7747,115 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="1"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="1"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="1"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="1"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="1"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="1"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="1"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="N33" s="117" t="s">
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="N33" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="O33" s="117"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="117"/>
-      <c r="R33" s="117"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="117"/>
+      <c r="O33" s="70"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="70"/>
+      <c r="R33" s="70"/>
+      <c r="S33" s="70"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="70"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="70"/>
       <c r="X33" s="26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="1"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="M34" s="66" t="s">
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="M34" s="75" t="s">
         <v>119</v>
       </c>
       <c r="N34" s="6" t="s">
@@ -7881,10 +7864,10 @@
       <c r="O34" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="P34" s="118" t="s">
+      <c r="P34" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="Q34" s="119"/>
+      <c r="Q34" s="72"/>
       <c r="R34" s="27" t="s">
         <v>147</v>
       </c>
@@ -7894,10 +7877,10 @@
       <c r="T34" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="U34" s="115" t="s">
+      <c r="U34" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="V34" s="116"/>
+      <c r="V34" s="74"/>
       <c r="W34" s="12" t="s">
         <v>151</v>
       </c>
@@ -7907,16 +7890,16 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="1"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="M35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="M35" s="75"/>
       <c r="N35" s="6">
         <v>1</v>
       </c>
@@ -7939,11 +7922,11 @@
       <c r="T35" s="27">
         <v>0</v>
       </c>
-      <c r="U35" s="115">
+      <c r="U35" s="73">
         <f>SUM(U36:U44)</f>
         <v>-162944</v>
       </c>
-      <c r="V35" s="116"/>
+      <c r="V35" s="74"/>
       <c r="W35" s="12">
         <f>O35+Q35+R35+S35-T35+U35</f>
         <v>-662731.32999999996</v>
@@ -7952,16 +7935,16 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="1"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="M36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="M36" s="75"/>
       <c r="N36" s="6">
         <v>2</v>
       </c>
@@ -7986,16 +7969,16 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="1"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="M37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="M37" s="75"/>
       <c r="N37" s="6">
         <v>3</v>
       </c>
@@ -8020,16 +8003,16 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="1"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="M38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="M38" s="75"/>
       <c r="N38" s="6">
         <v>4</v>
       </c>
@@ -8049,7 +8032,7 @@
       <c r="X38" s="12"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="M39" s="66"/>
+      <c r="M39" s="75"/>
       <c r="N39" s="6">
         <v>5</v>
       </c>
@@ -8079,7 +8062,7 @@
       <c r="G40" s="49"/>
       <c r="H40" s="49"/>
       <c r="I40" s="49"/>
-      <c r="M40" s="66"/>
+      <c r="M40" s="75"/>
       <c r="N40" s="6">
         <v>6</v>
       </c>
@@ -8100,7 +8083,7 @@
     </row>
     <row r="41" spans="1:24">
       <c r="B41" s="48"/>
-      <c r="M41" s="66"/>
+      <c r="M41" s="75"/>
       <c r="N41" s="6">
         <v>7</v>
       </c>
@@ -8120,7 +8103,7 @@
       <c r="X41" s="12"/>
     </row>
     <row r="42" spans="1:24">
-      <c r="M42" s="66"/>
+      <c r="M42" s="75"/>
       <c r="N42" s="6">
         <v>8</v>
       </c>
@@ -8153,7 +8136,7 @@
       <c r="J43" s="49"/>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
-      <c r="M43" s="66"/>
+      <c r="M43" s="75"/>
       <c r="N43" s="6">
         <v>9</v>
       </c>
@@ -8191,7 +8174,7 @@
       <c r="J44" s="49"/>
       <c r="K44" s="49"/>
       <c r="L44" s="49"/>
-      <c r="M44" s="66"/>
+      <c r="M44" s="75"/>
       <c r="N44" s="6">
         <v>10</v>
       </c>
@@ -8212,22 +8195,22 @@
       </c>
     </row>
     <row r="49" spans="13:24">
-      <c r="N49" s="113" t="s">
+      <c r="N49" s="76" t="s">
         <v>301</v>
       </c>
-      <c r="O49" s="114"/>
-      <c r="P49" s="114"/>
-      <c r="Q49" s="114"/>
-      <c r="R49" s="114"/>
-      <c r="S49" s="114"/>
-      <c r="T49" s="114"/>
-      <c r="U49" s="114"/>
-      <c r="V49" s="114"/>
-      <c r="W49" s="114"/>
-      <c r="X49" s="114"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="77"/>
+      <c r="R49" s="77"/>
+      <c r="S49" s="77"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="77"/>
+      <c r="V49" s="77"/>
+      <c r="W49" s="77"/>
+      <c r="X49" s="77"/>
     </row>
     <row r="50" spans="13:24">
-      <c r="M50" s="66" t="s">
+      <c r="M50" s="75" t="s">
         <v>300</v>
       </c>
       <c r="N50" s="15"/>
@@ -8245,13 +8228,13 @@
         <v>167</v>
       </c>
       <c r="V50" s="17"/>
-      <c r="W50" s="111" t="s">
+      <c r="W50" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="X50" s="112"/>
+      <c r="X50" s="79"/>
     </row>
     <row r="51" spans="13:24">
-      <c r="M51" s="67"/>
+      <c r="M51" s="89"/>
       <c r="N51" s="17">
         <v>7</v>
       </c>
@@ -8269,13 +8252,13 @@
       <c r="V51" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="W51" s="111">
+      <c r="W51" s="78">
         <v>22000</v>
       </c>
-      <c r="X51" s="112"/>
+      <c r="X51" s="79"/>
     </row>
     <row r="52" spans="13:24">
-      <c r="M52" s="67"/>
+      <c r="M52" s="89"/>
       <c r="N52" s="17">
         <v>8</v>
       </c>
@@ -8293,13 +8276,13 @@
       <c r="V52" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="W52" s="111">
+      <c r="W52" s="78">
         <v>18000</v>
       </c>
-      <c r="X52" s="112"/>
+      <c r="X52" s="79"/>
     </row>
     <row r="53" spans="13:24">
-      <c r="M53" s="67"/>
+      <c r="M53" s="89"/>
       <c r="N53" s="17">
         <v>9</v>
       </c>
@@ -8317,13 +8300,13 @@
       <c r="V53" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="W53" s="111">
+      <c r="W53" s="78">
         <v>18000</v>
       </c>
-      <c r="X53" s="112"/>
+      <c r="X53" s="79"/>
     </row>
     <row r="54" spans="13:24">
-      <c r="M54" s="67"/>
+      <c r="M54" s="89"/>
       <c r="N54" s="17">
         <v>10</v>
       </c>
@@ -8341,13 +8324,13 @@
       <c r="V54" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="W54" s="111">
+      <c r="W54" s="78">
         <v>18000</v>
       </c>
-      <c r="X54" s="112"/>
+      <c r="X54" s="79"/>
     </row>
     <row r="55" spans="13:24">
-      <c r="M55" s="67"/>
+      <c r="M55" s="89"/>
       <c r="N55" s="17">
         <v>11</v>
       </c>
@@ -8365,13 +8348,13 @@
       <c r="V55" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="W55" s="111">
+      <c r="W55" s="78">
         <v>18000</v>
       </c>
-      <c r="X55" s="112"/>
+      <c r="X55" s="79"/>
     </row>
     <row r="56" spans="13:24">
-      <c r="M56" s="67"/>
+      <c r="M56" s="89"/>
       <c r="N56" s="17">
         <v>12</v>
       </c>
@@ -8389,13 +8372,13 @@
       <c r="V56" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="W56" s="111">
+      <c r="W56" s="78">
         <v>162944</v>
       </c>
-      <c r="X56" s="112"/>
+      <c r="X56" s="79"/>
     </row>
     <row r="57" spans="13:24">
-      <c r="M57" s="67"/>
+      <c r="M57" s="89"/>
       <c r="N57" s="17">
         <v>13</v>
       </c>
@@ -8411,11 +8394,11 @@
       <c r="V57" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="W57" s="111"/>
-      <c r="X57" s="112"/>
+      <c r="W57" s="78"/>
+      <c r="X57" s="79"/>
     </row>
     <row r="58" spans="13:24">
-      <c r="M58" s="67"/>
+      <c r="M58" s="89"/>
       <c r="N58" s="17">
         <v>14</v>
       </c>
@@ -8436,59 +8419,59 @@
       <c r="V58" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="W58" s="111"/>
-      <c r="X58" s="112"/>
+      <c r="W58" s="78"/>
+      <c r="X58" s="79"/>
     </row>
     <row r="59" spans="13:24">
-      <c r="M59" s="67"/>
+      <c r="M59" s="89"/>
       <c r="N59" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="O59" s="107"/>
-      <c r="P59" s="108"/>
-      <c r="Q59" s="109"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="81"/>
+      <c r="Q59" s="82"/>
       <c r="R59" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="S59" s="107">
+      <c r="S59" s="80">
         <f>S58+T58</f>
         <v>8533000</v>
       </c>
-      <c r="T59" s="109"/>
+      <c r="T59" s="82"/>
       <c r="U59" s="18">
         <f>U51+U52+U53+U54+U55+U56+U57+U58+W58</f>
         <v>582156</v>
       </c>
       <c r="V59" s="18"/>
-      <c r="W59" s="107">
+      <c r="W59" s="80">
         <f>SUM(W51:W58)</f>
         <v>256944</v>
       </c>
-      <c r="X59" s="109"/>
+      <c r="X59" s="82"/>
     </row>
     <row r="60" spans="13:24">
-      <c r="M60" s="67"/>
+      <c r="M60" s="89"/>
       <c r="N60" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="O60" s="110" t="s">
+      <c r="O60" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="P60" s="108"/>
-      <c r="Q60" s="108"/>
-      <c r="R60" s="109"/>
-      <c r="S60" s="107">
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="82"/>
+      <c r="S60" s="80">
         <f>S59-U59</f>
         <v>7950844</v>
       </c>
-      <c r="T60" s="108"/>
-      <c r="U60" s="109"/>
+      <c r="T60" s="81"/>
+      <c r="U60" s="82"/>
       <c r="V60" s="18"/>
       <c r="W60" s="18"/>
       <c r="X60" s="18"/>
     </row>
     <row r="61" spans="13:24">
-      <c r="M61" s="67"/>
+      <c r="M61" s="89"/>
       <c r="N61" s="17">
         <v>17</v>
       </c>
@@ -8504,7 +8487,7 @@
       <c r="X61" s="18"/>
     </row>
     <row r="62" spans="13:24">
-      <c r="M62" s="67"/>
+      <c r="M62" s="89"/>
       <c r="N62" s="17">
         <v>18</v>
       </c>
@@ -8520,7 +8503,7 @@
       <c r="X62" s="18"/>
     </row>
     <row r="63" spans="13:24">
-      <c r="M63" s="67"/>
+      <c r="M63" s="89"/>
       <c r="N63" s="17">
         <v>19</v>
       </c>
@@ -8536,7 +8519,7 @@
       <c r="X63" s="18"/>
     </row>
     <row r="64" spans="13:24">
-      <c r="M64" s="67"/>
+      <c r="M64" s="89"/>
       <c r="N64" s="17">
         <v>20</v>
       </c>
@@ -8553,40 +8536,15 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="M1:V1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="N33:W33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="M34:M44"/>
-    <mergeCell ref="N49:X49"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="M50:M64"/>
+    <mergeCell ref="B4:J6"/>
+    <mergeCell ref="B7:J11"/>
+    <mergeCell ref="B12:J17"/>
+    <mergeCell ref="B18:J19"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -8597,15 +8555,40 @@
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="B24:J24"/>
     <mergeCell ref="B25:J25"/>
-    <mergeCell ref="M50:M64"/>
-    <mergeCell ref="B4:J6"/>
-    <mergeCell ref="B7:J11"/>
-    <mergeCell ref="B12:J17"/>
-    <mergeCell ref="B18:J19"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="N49:X49"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="M34:M44"/>
+    <mergeCell ref="N33:W33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B20:J20"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8618,8 +8601,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:W287"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="C300" sqref="C300"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8633,12 +8616,12 @@
   <sheetData>
     <row r="1" spans="2:8">
       <c r="B1" s="48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -8658,7 +8641,7 @@
         <v>331</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>13</v>
@@ -8666,7 +8649,7 @@
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="55" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>357</v>
@@ -8703,7 +8686,7 @@
       <c r="F5" s="55"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -8739,7 +8722,7 @@
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="56" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -8873,7 +8856,7 @@
     </row>
     <row r="20" spans="2:23">
       <c r="B20" s="48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="2:23">
@@ -8893,7 +8876,7 @@
         <v>331</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>13</v>
@@ -8924,7 +8907,7 @@
     </row>
     <row r="23" spans="2:23" ht="15">
       <c r="B23" s="55" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C23" s="38" t="s">
         <v>304</v>
@@ -9204,10 +9187,10 @@
     </row>
     <row r="33" spans="2:23">
       <c r="B33" s="51" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>305</v>
@@ -9218,7 +9201,7 @@
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
       <c r="H33" s="56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L33" s="49"/>
       <c r="M33" s="49"/>
@@ -9335,12 +9318,12 @@
     </row>
     <row r="40" spans="2:23">
       <c r="B40" s="48" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="2:23">
       <c r="B41" s="48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="42" spans="2:23">
@@ -9360,7 +9343,7 @@
         <v>331</v>
       </c>
       <c r="G42" s="55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H42" s="38" t="s">
         <v>13</v>
@@ -9628,12 +9611,12 @@
     </row>
     <row r="58" spans="2:12">
       <c r="B58" s="48" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="2:12">
       <c r="B59" s="48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60" spans="2:12">
@@ -9653,7 +9636,7 @@
         <v>331</v>
       </c>
       <c r="G60" s="55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H60" s="38" t="s">
         <v>13</v>
@@ -9684,7 +9667,7 @@
     </row>
     <row r="62" spans="2:12" ht="15">
       <c r="B62" s="55" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C62" s="55" t="s">
         <v>359</v>
@@ -9704,7 +9687,7 @@
         <v>221</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D63" s="61" t="s">
         <v>305</v>
@@ -9721,7 +9704,7 @@
         <v>28</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D64" s="61" t="s">
         <v>305</v>
@@ -9861,7 +9844,7 @@
         <v>45</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D72" s="55" t="s">
         <v>310</v>
@@ -9964,10 +9947,10 @@
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="51" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C78" s="55" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D78" s="55" t="s">
         <v>346</v>
@@ -10035,7 +10018,7 @@
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
       <c r="H81" s="55" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" spans="2:8">
@@ -10097,7 +10080,7 @@
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="55" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C85" s="55" t="s">
         <v>388</v>
@@ -10111,7 +10094,7 @@
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
       <c r="H85" s="55" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="2:8">
@@ -10153,7 +10136,7 @@
         <v>379</v>
       </c>
       <c r="C88" s="55" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D88" s="55" t="s">
         <v>310</v>
@@ -10184,7 +10167,7 @@
     </row>
     <row r="90" spans="2:8">
       <c r="B90" s="51" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C90" s="55" t="s">
         <v>385</v>
@@ -10204,7 +10187,7 @@
         <v>53</v>
       </c>
       <c r="C91" s="55" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D91" s="55" t="s">
         <v>310</v>
@@ -10221,7 +10204,7 @@
         <v>54</v>
       </c>
       <c r="C92" s="55" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D92" s="55" t="s">
         <v>310</v>
@@ -10235,10 +10218,10 @@
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C93" s="55" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D93" s="55" t="s">
         <v>310</v>
@@ -10255,7 +10238,7 @@
         <v>226</v>
       </c>
       <c r="C94" s="55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D94" s="55" t="s">
         <v>310</v>
@@ -10272,7 +10255,7 @@
         <v>227</v>
       </c>
       <c r="C95" s="55" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D95" s="55" t="s">
         <v>310</v>
@@ -10289,7 +10272,7 @@
         <v>56</v>
       </c>
       <c r="C96" s="55" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="D96" s="55" t="s">
         <v>305</v>
@@ -10300,7 +10283,7 @@
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
       <c r="H96" s="56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="2:8">
@@ -10361,7 +10344,7 @@
         <v>241</v>
       </c>
       <c r="C100" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D100" s="55" t="s">
         <v>334</v>
@@ -10420,7 +10403,7 @@
     </row>
     <row r="106" spans="2:8">
       <c r="B106" s="62" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C106" s="43"/>
       <c r="D106" s="43"/>
@@ -10431,7 +10414,7 @@
     </row>
     <row r="107" spans="2:8">
       <c r="B107" s="62" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C107" s="43"/>
       <c r="D107" s="43"/>
@@ -10457,7 +10440,7 @@
         <v>331</v>
       </c>
       <c r="G108" s="55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H108" s="38" t="s">
         <v>13</v>
@@ -10465,7 +10448,7 @@
     </row>
     <row r="109" spans="2:8" ht="15">
       <c r="B109" s="55" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C109" s="55" t="s">
         <v>357</v>
@@ -10491,7 +10474,7 @@
         <v>39</v>
       </c>
       <c r="C110" s="55" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D110" s="61" t="s">
         <v>305</v>
@@ -10519,7 +10502,7 @@
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
       <c r="H111" s="56" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="2:8">
@@ -10527,7 +10510,7 @@
         <v>206</v>
       </c>
       <c r="C112" s="55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D112" s="55" t="s">
         <v>334</v>
@@ -10595,10 +10578,10 @@
         <v>241</v>
       </c>
       <c r="C116" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D116" s="55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E116" s="55" t="s">
         <v>316</v>
@@ -10636,12 +10619,12 @@
     </row>
     <row r="122" spans="2:20">
       <c r="B122" s="48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="123" spans="2:20">
       <c r="B123" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="124" spans="2:20">
@@ -10661,7 +10644,7 @@
         <v>331</v>
       </c>
       <c r="G124" s="55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H124" s="38" t="s">
         <v>13</v>
@@ -10692,10 +10675,10 @@
     </row>
     <row r="126" spans="2:20" ht="15">
       <c r="B126" s="55" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C126" s="55" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D126" s="61" t="s">
         <v>305</v>
@@ -10709,7 +10692,7 @@
     </row>
     <row r="127" spans="2:20" ht="15">
       <c r="B127" s="55" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C127" s="55" t="s">
         <v>359</v>
@@ -10729,7 +10712,7 @@
         <v>21</v>
       </c>
       <c r="C128" s="55" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D128" s="61" t="s">
         <v>305</v>
@@ -10755,7 +10738,7 @@
         <v>28</v>
       </c>
       <c r="C129" s="55" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D129" s="61" t="s">
         <v>305</v>
@@ -10795,10 +10778,10 @@
     </row>
     <row r="131" spans="2:22" ht="15">
       <c r="B131" s="51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C131" s="51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D131" s="61" t="s">
         <v>305</v>
@@ -10842,7 +10825,7 @@
     </row>
     <row r="133" spans="2:22">
       <c r="B133" s="51" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C133" s="51" t="s">
         <v>366</v>
@@ -10859,7 +10842,7 @@
     </row>
     <row r="134" spans="2:22">
       <c r="B134" s="51" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C134" s="51" t="s">
         <v>367</v>
@@ -10879,7 +10862,7 @@
         <v>280</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D135" s="61" t="s">
         <v>305</v>
@@ -10935,7 +10918,7 @@
         <v>256</v>
       </c>
       <c r="C137" s="55" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D137" s="55" t="s">
         <v>346</v>
@@ -10965,7 +10948,7 @@
         <v>242</v>
       </c>
       <c r="C138" s="55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D138" s="61" t="s">
         <v>305</v>
@@ -10995,7 +10978,7 @@
         <v>66</v>
       </c>
       <c r="C139" s="55" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D139" s="55" t="s">
         <v>310</v>
@@ -11012,7 +10995,7 @@
         <v>67</v>
       </c>
       <c r="C140" s="55" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D140" s="55" t="s">
         <v>310</v>
@@ -11029,7 +11012,7 @@
         <v>68</v>
       </c>
       <c r="C141" s="55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D141" s="55" t="s">
         <v>310</v>
@@ -11046,7 +11029,7 @@
         <v>69</v>
       </c>
       <c r="C142" s="55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D142" s="55" t="s">
         <v>310</v>
@@ -11080,7 +11063,7 @@
         <v>71</v>
       </c>
       <c r="C144" s="55" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D144" s="55" t="s">
         <v>310</v>
@@ -11159,7 +11142,7 @@
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
       <c r="H148" s="56" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="149" spans="2:8">
@@ -11220,7 +11203,7 @@
         <v>241</v>
       </c>
       <c r="C152" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D152" s="55" t="s">
         <v>334</v>
@@ -11248,7 +11231,7 @@
     </row>
     <row r="158" spans="2:8">
       <c r="B158" s="48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="159" spans="2:8">
@@ -11256,7 +11239,7 @@
         <v>8</v>
       </c>
       <c r="C159" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D159" s="38" t="s">
         <v>10</v>
@@ -11268,7 +11251,7 @@
         <v>331</v>
       </c>
       <c r="G159" s="55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H159" s="38" t="s">
         <v>13</v>
@@ -11302,7 +11285,7 @@
         <v>279</v>
       </c>
       <c r="C161" s="55" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D161" s="61" t="s">
         <v>305</v>
@@ -11336,7 +11319,7 @@
         <v>248</v>
       </c>
       <c r="C163" s="51" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D163" s="61" t="s">
         <v>305</v>
@@ -11347,7 +11330,7 @@
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
       <c r="H163" s="56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L163" s="59"/>
       <c r="M163" s="59"/>
@@ -11363,7 +11346,7 @@
         <v>191</v>
       </c>
       <c r="C164" s="52" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D164" s="61" t="s">
         <v>305</v>
@@ -11374,7 +11357,7 @@
       <c r="F164" s="53"/>
       <c r="G164" s="53"/>
       <c r="H164" s="58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="165" spans="2:19" ht="43.2">
@@ -11393,7 +11376,7 @@
       <c r="F165" s="38"/>
       <c r="G165" s="38"/>
       <c r="H165" s="56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="166" spans="2:19" ht="28.8">
@@ -11401,7 +11384,7 @@
         <v>80</v>
       </c>
       <c r="C166" s="55" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D166" s="61" t="s">
         <v>305</v>
@@ -11412,7 +11395,7 @@
       <c r="F166" s="38"/>
       <c r="G166" s="38"/>
       <c r="H166" s="56" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="167" spans="2:19">
@@ -11445,7 +11428,7 @@
         <v>250</v>
       </c>
       <c r="C168" s="51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D168" s="55" t="s">
         <v>310</v>
@@ -11466,10 +11449,10 @@
         <v>190</v>
       </c>
       <c r="C169" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="D169" s="55" t="s">
         <v>414</v>
-      </c>
-      <c r="D169" s="55" t="s">
-        <v>415</v>
       </c>
       <c r="E169" s="55" t="s">
         <v>307</v>
@@ -11486,7 +11469,7 @@
         <v>260</v>
       </c>
       <c r="C170" s="51" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D170" s="61" t="s">
         <v>305</v>
@@ -11497,7 +11480,7 @@
       <c r="F170" s="38"/>
       <c r="G170" s="38"/>
       <c r="H170" s="56" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L170" s="48"/>
     </row>
@@ -11559,7 +11542,7 @@
         <v>241</v>
       </c>
       <c r="C174" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D174" s="55" t="s">
         <v>334</v>
@@ -11582,12 +11565,12 @@
     </row>
     <row r="178" spans="2:12">
       <c r="B178" s="48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="179" spans="2:12">
       <c r="B179" s="48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="180" spans="2:12">
@@ -11595,7 +11578,7 @@
         <v>9</v>
       </c>
       <c r="C180" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D180" s="38" t="s">
         <v>10</v>
@@ -11607,7 +11590,7 @@
         <v>331</v>
       </c>
       <c r="G180" s="55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H180" s="38" t="s">
         <v>13</v>
@@ -11642,7 +11625,7 @@
         <v>239</v>
       </c>
       <c r="C182" s="55" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D182" s="61" t="s">
         <v>305</v>
@@ -11653,7 +11636,7 @@
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
       <c r="H182" s="56" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L182" s="48"/>
     </row>
@@ -11662,7 +11645,7 @@
         <v>258</v>
       </c>
       <c r="C183" s="55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D183" s="55" t="s">
         <v>310</v>
@@ -11681,7 +11664,7 @@
         <v>259</v>
       </c>
       <c r="C184" s="55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D184" s="55" t="s">
         <v>310</v>
@@ -11697,10 +11680,10 @@
     </row>
     <row r="185" spans="2:12" ht="28.8">
       <c r="B185" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="C185" s="55" t="s">
         <v>420</v>
-      </c>
-      <c r="C185" s="55" t="s">
-        <v>421</v>
       </c>
       <c r="D185" s="61" t="s">
         <v>305</v>
@@ -11711,7 +11694,7 @@
       <c r="F185" s="38"/>
       <c r="G185" s="38"/>
       <c r="H185" s="56" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="186" spans="2:12" ht="15">
@@ -11719,7 +11702,7 @@
         <v>261</v>
       </c>
       <c r="C186" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D186" s="61" t="s">
         <v>305</v>
@@ -11728,7 +11711,7 @@
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
       <c r="H186" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="187" spans="2:12">
@@ -11789,7 +11772,7 @@
         <v>241</v>
       </c>
       <c r="C190" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D190" s="55" t="s">
         <v>334</v>
@@ -11839,12 +11822,12 @@
     </row>
     <row r="197" spans="2:8">
       <c r="B197" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="198" spans="2:8">
       <c r="B198" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="199" spans="2:8">
@@ -11864,7 +11847,7 @@
         <v>331</v>
       </c>
       <c r="G199" s="55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H199" s="38" t="s">
         <v>13</v>
@@ -11915,7 +11898,7 @@
         <v>239</v>
       </c>
       <c r="C202" s="55" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D202" s="61" t="s">
         <v>305</v>
@@ -11934,7 +11917,7 @@
         <v>242</v>
       </c>
       <c r="C203" s="62" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D203" s="61" t="s">
         <v>305</v>
@@ -11950,10 +11933,10 @@
     </row>
     <row r="204" spans="2:8">
       <c r="B204" s="51" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C204" s="55" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D204" s="55" t="s">
         <v>346</v>
@@ -12073,10 +12056,10 @@
     </row>
     <row r="211" spans="2:23">
       <c r="B211" s="51" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C211" s="51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D211" s="55" t="s">
         <v>305</v>
@@ -12087,7 +12070,7 @@
       <c r="F211" s="55"/>
       <c r="G211" s="55"/>
       <c r="H211" s="56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L211" s="49"/>
       <c r="M211" s="49"/>
@@ -12107,7 +12090,7 @@
         <v>264</v>
       </c>
       <c r="C212" s="51" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D212" s="61" t="s">
         <v>305</v>
@@ -12118,7 +12101,7 @@
       <c r="F212" s="38"/>
       <c r="G212" s="38"/>
       <c r="H212" s="56" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="213" spans="2:23">
@@ -12126,7 +12109,7 @@
         <v>273</v>
       </c>
       <c r="C213" s="55" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D213" s="55" t="s">
         <v>305</v>
@@ -12137,12 +12120,12 @@
       <c r="F213" s="38"/>
       <c r="G213" s="38"/>
       <c r="H213" s="55" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="214" spans="2:23">
       <c r="B214" s="51" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C214" s="55" t="s">
         <v>388</v>
@@ -12179,7 +12162,7 @@
         <v>285</v>
       </c>
       <c r="C216" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D216" s="55" t="s">
         <v>310</v>
@@ -12196,7 +12179,7 @@
         <v>286</v>
       </c>
       <c r="C217" s="55" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D217" s="55" t="s">
         <v>310</v>
@@ -12213,7 +12196,7 @@
         <v>267</v>
       </c>
       <c r="C218" s="55" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D218" s="55" t="s">
         <v>310</v>
@@ -12230,7 +12213,7 @@
         <v>287</v>
       </c>
       <c r="C219" s="55" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D219" s="55" t="s">
         <v>310</v>
@@ -12302,7 +12285,7 @@
         <v>241</v>
       </c>
       <c r="C223" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D223" s="55" t="s">
         <v>334</v>
@@ -12352,12 +12335,12 @@
     </row>
     <row r="229" spans="2:22">
       <c r="B229" s="48" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="230" spans="2:22">
       <c r="B230" s="48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="231" spans="2:22">
@@ -12377,7 +12360,7 @@
         <v>331</v>
       </c>
       <c r="G231" s="55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H231" s="38" t="s">
         <v>13</v>
@@ -12411,7 +12394,7 @@
         <v>247</v>
       </c>
       <c r="C233" s="55" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D233" s="61" t="s">
         <v>305</v>
@@ -12425,7 +12408,7 @@
     </row>
     <row r="234" spans="2:22" ht="15">
       <c r="B234" s="55" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C234" s="55" t="s">
         <v>359</v>
@@ -12442,10 +12425,10 @@
     </row>
     <row r="235" spans="2:22" ht="15">
       <c r="B235" s="51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C235" s="55" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D235" s="61" t="s">
         <v>305</v>
@@ -12468,10 +12451,10 @@
     </row>
     <row r="236" spans="2:22" ht="15">
       <c r="B236" s="51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C236" s="51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D236" s="61" t="s">
         <v>305</v>
@@ -12543,7 +12526,7 @@
     </row>
     <row r="239" spans="2:22">
       <c r="B239" s="51" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C239" s="51" t="s">
         <v>366</v>
@@ -12560,7 +12543,7 @@
     </row>
     <row r="240" spans="2:22">
       <c r="B240" s="51" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C240" s="51" t="s">
         <v>367</v>
@@ -12580,7 +12563,7 @@
         <v>280</v>
       </c>
       <c r="C241" s="51" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D241" s="61" t="s">
         <v>305</v>
@@ -12608,7 +12591,7 @@
         <v>293</v>
       </c>
       <c r="C242" s="51" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D242" s="55" t="s">
         <v>310</v>
@@ -12636,7 +12619,7 @@
         <v>294</v>
       </c>
       <c r="C243" s="51" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D243" s="55" t="s">
         <v>310</v>
@@ -12653,7 +12636,7 @@
         <v>296</v>
       </c>
       <c r="C244" s="51" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D244" s="55" t="s">
         <v>310</v>
@@ -12681,7 +12664,7 @@
       <c r="F245" s="38"/>
       <c r="G245" s="38"/>
       <c r="H245" s="56" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="246" spans="2:22">
@@ -12742,7 +12725,7 @@
         <v>241</v>
       </c>
       <c r="C249" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D249" s="55" t="s">
         <v>334</v>
@@ -12797,7 +12780,7 @@
     </row>
     <row r="256" spans="2:22">
       <c r="B256" s="48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="257" spans="2:12">
@@ -12817,7 +12800,7 @@
         <v>331</v>
       </c>
       <c r="G257" s="55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H257" s="38" t="s">
         <v>13</v>
@@ -12848,10 +12831,10 @@
     </row>
     <row r="259" spans="2:12" ht="15">
       <c r="B259" s="55" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C259" s="55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D259" s="61" t="s">
         <v>305</v>
@@ -12862,15 +12845,15 @@
       <c r="F259" s="38"/>
       <c r="G259" s="38"/>
       <c r="H259" s="55" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="260" spans="2:12">
       <c r="B260" s="51" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C260" s="55" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D260" s="55" t="s">
         <v>346</v>
@@ -12881,7 +12864,7 @@
       <c r="F260" s="38"/>
       <c r="G260" s="38"/>
       <c r="H260" s="55" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="261" spans="2:12">
@@ -12889,7 +12872,7 @@
         <v>277</v>
       </c>
       <c r="C261" s="51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D261" s="55" t="s">
         <v>310</v>
@@ -12917,15 +12900,15 @@
       <c r="F262" s="38"/>
       <c r="G262" s="38"/>
       <c r="H262" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="263" spans="2:12" ht="15">
       <c r="B263" s="51" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C263" s="51" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D263" s="61" t="s">
         <v>305</v>
@@ -12936,7 +12919,7 @@
       <c r="F263" s="38"/>
       <c r="G263" s="38"/>
       <c r="H263" s="56" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L263" s="48"/>
     </row>
@@ -12998,7 +12981,7 @@
         <v>241</v>
       </c>
       <c r="C267" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D267" s="55" t="s">
         <v>334</v>
@@ -13035,7 +13018,7 @@
     </row>
     <row r="274" spans="2:12">
       <c r="B274" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="275" spans="2:12">
@@ -13055,7 +13038,7 @@
         <v>331</v>
       </c>
       <c r="G275" s="55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H275" s="38" t="s">
         <v>13</v>
@@ -13063,7 +13046,7 @@
     </row>
     <row r="276" spans="2:12" ht="15">
       <c r="B276" s="55" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C276" s="55" t="s">
         <v>357</v>
@@ -13089,7 +13072,7 @@
         <v>242</v>
       </c>
       <c r="C277" s="62" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D277" s="61" t="s">
         <v>305</v>
@@ -13103,10 +13086,10 @@
     </row>
     <row r="278" spans="2:12" ht="15">
       <c r="B278" s="55" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C278" s="55" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D278" s="61" t="s">
         <v>305</v>
@@ -13123,7 +13106,7 @@
         <v>277</v>
       </c>
       <c r="C279" s="51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D279" s="55" t="s">
         <v>310</v>
@@ -13140,7 +13123,7 @@
         <v>278</v>
       </c>
       <c r="C280" s="51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D280" s="61" t="s">
         <v>305</v>
@@ -13151,15 +13134,15 @@
       <c r="F280" s="38"/>
       <c r="G280" s="38"/>
       <c r="H280" s="56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="281" spans="2:12" ht="15">
       <c r="B281" s="51" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C281" s="51" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D281" s="61" t="s">
         <v>305</v>
@@ -13170,7 +13153,7 @@
       <c r="F281" s="38"/>
       <c r="G281" s="38"/>
       <c r="H281" s="56" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L281" s="48"/>
     </row>
@@ -13232,7 +13215,7 @@
         <v>241</v>
       </c>
       <c r="C285" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D285" s="55" t="s">
         <v>334</v>
@@ -13279,7 +13262,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -13296,12 +13279,12 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -13321,7 +13304,7 @@
         <v>331</v>
       </c>
       <c r="F3" s="55" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>13</v>
@@ -13355,7 +13338,7 @@
         <v>239</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>305</v>
@@ -13366,7 +13349,7 @@
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="G5" s="56" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -13374,7 +13357,7 @@
         <v>258</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C6" s="55" t="s">
         <v>310</v>
@@ -13393,7 +13376,7 @@
         <v>259</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>310</v>
@@ -13409,10 +13392,10 @@
     </row>
     <row r="8" spans="1:7" ht="43.2">
       <c r="A8" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>420</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>421</v>
       </c>
       <c r="C8" s="61" t="s">
         <v>305</v>
@@ -13423,7 +13406,7 @@
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="56" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
@@ -13431,7 +13414,7 @@
         <v>261</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C9" s="61" t="s">
         <v>305</v>
@@ -13440,7 +13423,7 @@
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/doc/彦鹏需求0107.xlsx
+++ b/doc/彦鹏需求0107.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="510">
   <si>
     <t>1 我的想法是抛开你这个表的情况，先以你为维度登记处理下整个的贷款周期内的各种事情，比如合同登记、放款、还款、逾期、提前还款等等</t>
   </si>
@@ -3634,6 +3634,41 @@
   </si>
   <si>
     <t>t_biz_transfer_voucher_info</t>
+  </si>
+  <si>
+    <t>服务费收取方式</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>首期:1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:2</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:是,0:否</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4231,74 +4266,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4401,6 +4370,72 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6666,29 +6701,29 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="M1" s="67" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="M1" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
       <c r="W1" s="19" t="s">
         <v>97</v>
       </c>
@@ -6697,18 +6732,18 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="L2" s="75" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="L2" s="66" t="s">
         <v>98</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -6749,18 +6784,18 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="L3" s="75"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="L3" s="66"/>
       <c r="M3" s="6">
         <v>1</v>
       </c>
@@ -6797,21 +6832,21 @@
       <c r="W3" s="11"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="92"/>
-      <c r="L4" s="75"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="L4" s="66"/>
       <c r="M4" s="6">
         <v>2</v>
       </c>
@@ -6848,17 +6883,17 @@
       <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="85"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
-      <c r="L5" s="75"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
+      <c r="L5" s="66"/>
       <c r="M5" s="6">
         <v>3</v>
       </c>
@@ -6894,17 +6929,17 @@
       <c r="W5" s="11"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="86"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
-      <c r="L6" s="75"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="L6" s="66"/>
       <c r="M6" s="6">
         <v>4</v>
       </c>
@@ -6938,21 +6973,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="101"/>
-      <c r="L7" s="75"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79"/>
+      <c r="L7" s="66"/>
       <c r="M7" s="6">
         <v>5</v>
       </c>
@@ -6986,17 +7021,17 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="85"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104"/>
-      <c r="L8" s="75"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="L8" s="66"/>
       <c r="M8" s="6">
         <v>6</v>
       </c>
@@ -7032,17 +7067,17 @@
       <c r="W8" s="11"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="85"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
-      <c r="L9" s="75"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="L9" s="66"/>
       <c r="M9" s="6">
         <v>7</v>
       </c>
@@ -7078,17 +7113,17 @@
       <c r="W9" s="11"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="85"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
-      <c r="L10" s="75"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
+      <c r="L10" s="66"/>
       <c r="M10" s="6">
         <v>8</v>
       </c>
@@ -7124,17 +7159,17 @@
       <c r="W10" s="11"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="86"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="107"/>
-      <c r="L11" s="75"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="6">
         <v>9</v>
       </c>
@@ -7168,21 +7203,21 @@
       <c r="W11" s="11"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
-      <c r="L12" s="75"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="L12" s="66"/>
       <c r="M12" s="6">
         <v>10</v>
       </c>
@@ -7218,17 +7253,17 @@
       <c r="W12" s="11"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="85"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
-      <c r="L13" s="75"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
+      <c r="L13" s="66"/>
       <c r="M13" s="6">
         <v>11</v>
       </c>
@@ -7264,17 +7299,17 @@
       <c r="W13" s="11"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="85"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="113"/>
-      <c r="L14" s="75"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="91"/>
+      <c r="L14" s="66"/>
       <c r="M14" s="6">
         <v>12</v>
       </c>
@@ -7310,17 +7345,17 @@
       <c r="W14" s="11"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="85"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="113"/>
-      <c r="L15" s="75"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="6">
         <v>13</v>
       </c>
@@ -7354,17 +7389,17 @@
       <c r="W15" s="11"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="85"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="113"/>
-      <c r="L16" s="75"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="6">
         <v>14</v>
       </c>
@@ -7398,17 +7433,17 @@
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="86"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="L17" s="75"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="L17" s="66"/>
       <c r="M17" s="6">
         <v>15</v>
       </c>
@@ -7434,21 +7469,21 @@
       <c r="W17" s="11"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="119"/>
-      <c r="L18" s="75"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="97"/>
+      <c r="L18" s="66"/>
       <c r="M18" s="6">
         <v>16</v>
       </c>
@@ -7474,17 +7509,17 @@
       <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="88"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="122"/>
-      <c r="L19" s="75"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="6">
         <v>17</v>
       </c>
@@ -7511,16 +7546,16 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="6"/>
       <c r="N20" s="11"/>
       <c r="O20" s="12"/>
@@ -7543,16 +7578,16 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="1"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="L21" s="75"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="L21" s="66"/>
       <c r="M21" s="6"/>
       <c r="N21" s="11"/>
       <c r="O21" s="12"/>
@@ -7575,16 +7610,16 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="1"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="L22" s="75"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="6"/>
       <c r="N22" s="11"/>
       <c r="O22" s="12"/>
@@ -7607,16 +7642,16 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="1"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="L23" s="75"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="L23" s="66"/>
       <c r="M23" s="6"/>
       <c r="N23" s="11"/>
       <c r="O23" s="12"/>
@@ -7639,16 +7674,16 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="1"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="L24" s="75"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="L24" s="66"/>
       <c r="M24" s="6"/>
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
@@ -7671,16 +7706,16 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="L25" s="75"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="L25" s="66"/>
       <c r="M25" s="6"/>
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
@@ -7703,16 +7738,16 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="1"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="L26" s="75"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="6" t="s">
         <v>143</v>
       </c>
@@ -7747,115 +7782,115 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="1"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="1"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="1"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="1"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="1"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="1"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="1"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="N33" s="70" t="s">
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="N33" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="70"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="117"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
       <c r="X33" s="26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="1"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="M34" s="75" t="s">
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="M34" s="66" t="s">
         <v>119</v>
       </c>
       <c r="N34" s="6" t="s">
@@ -7864,10 +7899,10 @@
       <c r="O34" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="P34" s="71" t="s">
+      <c r="P34" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="Q34" s="72"/>
+      <c r="Q34" s="119"/>
       <c r="R34" s="27" t="s">
         <v>147</v>
       </c>
@@ -7877,10 +7912,10 @@
       <c r="T34" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="U34" s="73" t="s">
+      <c r="U34" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="V34" s="74"/>
+      <c r="V34" s="116"/>
       <c r="W34" s="12" t="s">
         <v>151</v>
       </c>
@@ -7890,16 +7925,16 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="1"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="M35" s="75"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="M35" s="66"/>
       <c r="N35" s="6">
         <v>1</v>
       </c>
@@ -7922,11 +7957,11 @@
       <c r="T35" s="27">
         <v>0</v>
       </c>
-      <c r="U35" s="73">
+      <c r="U35" s="115">
         <f>SUM(U36:U44)</f>
         <v>-162944</v>
       </c>
-      <c r="V35" s="74"/>
+      <c r="V35" s="116"/>
       <c r="W35" s="12">
         <f>O35+Q35+R35+S35-T35+U35</f>
         <v>-662731.32999999996</v>
@@ -7935,16 +7970,16 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="1"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="M36" s="75"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
+      <c r="M36" s="66"/>
       <c r="N36" s="6">
         <v>2</v>
       </c>
@@ -7969,16 +8004,16 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="1"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="M37" s="75"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="M37" s="66"/>
       <c r="N37" s="6">
         <v>3</v>
       </c>
@@ -8003,16 +8038,16 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="1"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="M38" s="75"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="101"/>
+      <c r="M38" s="66"/>
       <c r="N38" s="6">
         <v>4</v>
       </c>
@@ -8032,7 +8067,7 @@
       <c r="X38" s="12"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="M39" s="75"/>
+      <c r="M39" s="66"/>
       <c r="N39" s="6">
         <v>5</v>
       </c>
@@ -8062,7 +8097,7 @@
       <c r="G40" s="49"/>
       <c r="H40" s="49"/>
       <c r="I40" s="49"/>
-      <c r="M40" s="75"/>
+      <c r="M40" s="66"/>
       <c r="N40" s="6">
         <v>6</v>
       </c>
@@ -8083,7 +8118,7 @@
     </row>
     <row r="41" spans="1:24">
       <c r="B41" s="48"/>
-      <c r="M41" s="75"/>
+      <c r="M41" s="66"/>
       <c r="N41" s="6">
         <v>7</v>
       </c>
@@ -8103,7 +8138,7 @@
       <c r="X41" s="12"/>
     </row>
     <row r="42" spans="1:24">
-      <c r="M42" s="75"/>
+      <c r="M42" s="66"/>
       <c r="N42" s="6">
         <v>8</v>
       </c>
@@ -8136,7 +8171,7 @@
       <c r="J43" s="49"/>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
-      <c r="M43" s="75"/>
+      <c r="M43" s="66"/>
       <c r="N43" s="6">
         <v>9</v>
       </c>
@@ -8174,7 +8209,7 @@
       <c r="J44" s="49"/>
       <c r="K44" s="49"/>
       <c r="L44" s="49"/>
-      <c r="M44" s="75"/>
+      <c r="M44" s="66"/>
       <c r="N44" s="6">
         <v>10</v>
       </c>
@@ -8195,22 +8230,22 @@
       </c>
     </row>
     <row r="49" spans="13:24">
-      <c r="N49" s="76" t="s">
+      <c r="N49" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="O49" s="77"/>
-      <c r="P49" s="77"/>
-      <c r="Q49" s="77"/>
-      <c r="R49" s="77"/>
-      <c r="S49" s="77"/>
-      <c r="T49" s="77"/>
-      <c r="U49" s="77"/>
-      <c r="V49" s="77"/>
-      <c r="W49" s="77"/>
-      <c r="X49" s="77"/>
+      <c r="O49" s="114"/>
+      <c r="P49" s="114"/>
+      <c r="Q49" s="114"/>
+      <c r="R49" s="114"/>
+      <c r="S49" s="114"/>
+      <c r="T49" s="114"/>
+      <c r="U49" s="114"/>
+      <c r="V49" s="114"/>
+      <c r="W49" s="114"/>
+      <c r="X49" s="114"/>
     </row>
     <row r="50" spans="13:24">
-      <c r="M50" s="75" t="s">
+      <c r="M50" s="66" t="s">
         <v>300</v>
       </c>
       <c r="N50" s="15"/>
@@ -8228,13 +8263,13 @@
         <v>167</v>
       </c>
       <c r="V50" s="17"/>
-      <c r="W50" s="78" t="s">
+      <c r="W50" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="X50" s="79"/>
+      <c r="X50" s="112"/>
     </row>
     <row r="51" spans="13:24">
-      <c r="M51" s="89"/>
+      <c r="M51" s="67"/>
       <c r="N51" s="17">
         <v>7</v>
       </c>
@@ -8252,13 +8287,13 @@
       <c r="V51" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="W51" s="78">
+      <c r="W51" s="111">
         <v>22000</v>
       </c>
-      <c r="X51" s="79"/>
+      <c r="X51" s="112"/>
     </row>
     <row r="52" spans="13:24">
-      <c r="M52" s="89"/>
+      <c r="M52" s="67"/>
       <c r="N52" s="17">
         <v>8</v>
       </c>
@@ -8276,13 +8311,13 @@
       <c r="V52" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="W52" s="78">
+      <c r="W52" s="111">
         <v>18000</v>
       </c>
-      <c r="X52" s="79"/>
+      <c r="X52" s="112"/>
     </row>
     <row r="53" spans="13:24">
-      <c r="M53" s="89"/>
+      <c r="M53" s="67"/>
       <c r="N53" s="17">
         <v>9</v>
       </c>
@@ -8300,13 +8335,13 @@
       <c r="V53" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="W53" s="78">
+      <c r="W53" s="111">
         <v>18000</v>
       </c>
-      <c r="X53" s="79"/>
+      <c r="X53" s="112"/>
     </row>
     <row r="54" spans="13:24">
-      <c r="M54" s="89"/>
+      <c r="M54" s="67"/>
       <c r="N54" s="17">
         <v>10</v>
       </c>
@@ -8324,13 +8359,13 @@
       <c r="V54" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="W54" s="78">
+      <c r="W54" s="111">
         <v>18000</v>
       </c>
-      <c r="X54" s="79"/>
+      <c r="X54" s="112"/>
     </row>
     <row r="55" spans="13:24">
-      <c r="M55" s="89"/>
+      <c r="M55" s="67"/>
       <c r="N55" s="17">
         <v>11</v>
       </c>
@@ -8348,13 +8383,13 @@
       <c r="V55" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="W55" s="78">
+      <c r="W55" s="111">
         <v>18000</v>
       </c>
-      <c r="X55" s="79"/>
+      <c r="X55" s="112"/>
     </row>
     <row r="56" spans="13:24">
-      <c r="M56" s="89"/>
+      <c r="M56" s="67"/>
       <c r="N56" s="17">
         <v>12</v>
       </c>
@@ -8372,13 +8407,13 @@
       <c r="V56" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="W56" s="78">
+      <c r="W56" s="111">
         <v>162944</v>
       </c>
-      <c r="X56" s="79"/>
+      <c r="X56" s="112"/>
     </row>
     <row r="57" spans="13:24">
-      <c r="M57" s="89"/>
+      <c r="M57" s="67"/>
       <c r="N57" s="17">
         <v>13</v>
       </c>
@@ -8394,11 +8429,11 @@
       <c r="V57" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="W57" s="78"/>
-      <c r="X57" s="79"/>
+      <c r="W57" s="111"/>
+      <c r="X57" s="112"/>
     </row>
     <row r="58" spans="13:24">
-      <c r="M58" s="89"/>
+      <c r="M58" s="67"/>
       <c r="N58" s="17">
         <v>14</v>
       </c>
@@ -8419,59 +8454,59 @@
       <c r="V58" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="W58" s="78"/>
-      <c r="X58" s="79"/>
+      <c r="W58" s="111"/>
+      <c r="X58" s="112"/>
     </row>
     <row r="59" spans="13:24">
-      <c r="M59" s="89"/>
+      <c r="M59" s="67"/>
       <c r="N59" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="O59" s="80"/>
-      <c r="P59" s="81"/>
-      <c r="Q59" s="82"/>
+      <c r="O59" s="107"/>
+      <c r="P59" s="108"/>
+      <c r="Q59" s="109"/>
       <c r="R59" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="S59" s="80">
+      <c r="S59" s="107">
         <f>S58+T58</f>
         <v>8533000</v>
       </c>
-      <c r="T59" s="82"/>
+      <c r="T59" s="109"/>
       <c r="U59" s="18">
         <f>U51+U52+U53+U54+U55+U56+U57+U58+W58</f>
         <v>582156</v>
       </c>
       <c r="V59" s="18"/>
-      <c r="W59" s="80">
+      <c r="W59" s="107">
         <f>SUM(W51:W58)</f>
         <v>256944</v>
       </c>
-      <c r="X59" s="82"/>
+      <c r="X59" s="109"/>
     </row>
     <row r="60" spans="13:24">
-      <c r="M60" s="89"/>
+      <c r="M60" s="67"/>
       <c r="N60" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="O60" s="83" t="s">
+      <c r="O60" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81"/>
-      <c r="R60" s="82"/>
-      <c r="S60" s="80">
+      <c r="P60" s="108"/>
+      <c r="Q60" s="108"/>
+      <c r="R60" s="109"/>
+      <c r="S60" s="107">
         <f>S59-U59</f>
         <v>7950844</v>
       </c>
-      <c r="T60" s="81"/>
-      <c r="U60" s="82"/>
+      <c r="T60" s="108"/>
+      <c r="U60" s="109"/>
       <c r="V60" s="18"/>
       <c r="W60" s="18"/>
       <c r="X60" s="18"/>
     </row>
     <row r="61" spans="13:24">
-      <c r="M61" s="89"/>
+      <c r="M61" s="67"/>
       <c r="N61" s="17">
         <v>17</v>
       </c>
@@ -8487,7 +8522,7 @@
       <c r="X61" s="18"/>
     </row>
     <row r="62" spans="13:24">
-      <c r="M62" s="89"/>
+      <c r="M62" s="67"/>
       <c r="N62" s="17">
         <v>18</v>
       </c>
@@ -8503,7 +8538,7 @@
       <c r="X62" s="18"/>
     </row>
     <row r="63" spans="13:24">
-      <c r="M63" s="89"/>
+      <c r="M63" s="67"/>
       <c r="N63" s="17">
         <v>19</v>
       </c>
@@ -8519,7 +8554,7 @@
       <c r="X63" s="18"/>
     </row>
     <row r="64" spans="13:24">
-      <c r="M64" s="89"/>
+      <c r="M64" s="67"/>
       <c r="N64" s="17">
         <v>20</v>
       </c>
@@ -8536,15 +8571,40 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="M50:M64"/>
-    <mergeCell ref="B4:J6"/>
-    <mergeCell ref="B7:J11"/>
-    <mergeCell ref="B12:J17"/>
-    <mergeCell ref="B18:J19"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="N33:W33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="M34:M44"/>
+    <mergeCell ref="N49:X49"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="S60:U60"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -8555,40 +8615,15 @@
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="B24:J24"/>
     <mergeCell ref="B25:J25"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="N49:X49"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="M34:M44"/>
-    <mergeCell ref="N33:W33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="M1:V1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="M50:M64"/>
+    <mergeCell ref="B4:J6"/>
+    <mergeCell ref="B7:J11"/>
+    <mergeCell ref="B12:J17"/>
+    <mergeCell ref="B18:J19"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8601,8 +8636,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:W287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8986,7 +9021,7 @@
         <v>311</v>
       </c>
       <c r="D26" s="55" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E26" s="55" t="s">
         <v>307</v>
@@ -9009,7 +9044,7 @@
     </row>
     <row r="27" spans="2:23" ht="15">
       <c r="B27" s="39" t="s">
-        <v>222</v>
+        <v>507</v>
       </c>
       <c r="C27" s="51" t="s">
         <v>313</v>
@@ -9023,7 +9058,7 @@
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
       <c r="H27" s="55" t="s">
-        <v>320</v>
+        <v>508</v>
       </c>
       <c r="L27" s="57"/>
       <c r="M27" s="57"/>
@@ -9081,7 +9116,7 @@
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
       <c r="H29" s="55" t="s">
-        <v>319</v>
+        <v>509</v>
       </c>
       <c r="L29" s="57"/>
       <c r="M29" s="57"/>

--- a/doc/彦鹏需求0107.xlsx
+++ b/doc/彦鹏需求0107.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="601">
   <si>
     <t>1 我的想法是抛开你这个表的情况，先以你为维度登记处理下整个的贷款周期内的各种事情，比如合同登记、放款、还款、逾期、提前还款等等</t>
   </si>
@@ -3506,11 +3506,56 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>如果是融资账户指的是客户编号
-如果是公司卡账户，为1
-如果是借款人账户，指的是客户编号
-如果是代偿账户，为4</t>
+    <t>客户类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户状态</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效:1,冻结:2,止用:3</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>cert_no</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户姓名</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>正常:1,</t>
     </r>
     <r>
       <rPr>
@@ -3520,8 +3565,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-如果是暂收暂付账户，为</t>
+      <t>黑名单</t>
     </r>
     <r>
       <rPr>
@@ -3532,83 +3576,252 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:借款人账户,2:融资人账户</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户状态</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效:1,冻结:2,止用:3</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件号码</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>cert_no</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件类型</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户姓名</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>正常:1,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黑名单</t>
+      <t>:2,删除:3</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_by</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改操作员</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>modified_by</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>createAt</t>
+  </si>
+  <si>
+    <t>updateAt</t>
+  </si>
+  <si>
+    <t>lendingAmt</t>
+  </si>
+  <si>
+    <t>lendingAcct</t>
+  </si>
+  <si>
+    <t>externalAcct</t>
+  </si>
+  <si>
+    <t>wavAmt</t>
+  </si>
+  <si>
+    <t>createBy</t>
+  </si>
+  <si>
+    <t>modifiedBy</t>
+  </si>
+  <si>
+    <t>receiveBigint</t>
+  </si>
+  <si>
+    <t>schdBigint</t>
+  </si>
+  <si>
+    <t>ctdBigint</t>
+  </si>
+  <si>
+    <t>paidBigint</t>
+  </si>
+  <si>
+    <t>chdBigint</t>
+  </si>
+  <si>
+    <t>acctDate</t>
+  </si>
+  <si>
+    <t>beginDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>lendingDate</t>
+  </si>
+  <si>
+    <t>ddDate</t>
+  </si>
+  <si>
+    <t>balDir</t>
+  </si>
+  <si>
+    <t>serviceFee</t>
+  </si>
+  <si>
+    <t>cycleInterval</t>
+  </si>
+  <si>
+    <t>orgNo</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>penNumber</t>
+  </si>
+  <si>
+    <t>productNo</t>
+  </si>
+  <si>
+    <t>custNo</t>
+  </si>
+  <si>
+    <t>contrNo</t>
+  </si>
+  <si>
+    <t>termNo</t>
+  </si>
+  <si>
+    <t>extensionNo</t>
+  </si>
+  <si>
+    <t>loanNo</t>
+  </si>
+  <si>
+    <t>ddNum</t>
+  </si>
+  <si>
+    <t>inAcctNo</t>
+  </si>
+  <si>
+    <t>groupNo</t>
+  </si>
+  <si>
+    <t>voucherNo</t>
+  </si>
+  <si>
+    <t>acctNo</t>
+  </si>
+  <si>
+    <t>userNo</t>
+  </si>
+  <si>
+    <t>investNo</t>
+  </si>
+  <si>
+    <t>outAcctNo</t>
+  </si>
+  <si>
+    <t>isPen</t>
+  </si>
+  <si>
+    <t>schdPrin</t>
+  </si>
+  <si>
+    <t>schdPen</t>
+  </si>
+  <si>
+    <t>totPaidPrin</t>
+  </si>
+  <si>
+    <t>totPaidBigint</t>
+  </si>
+  <si>
+    <t>totPaidPen</t>
+  </si>
+  <si>
+    <t>ctdPrin</t>
+  </si>
+  <si>
+    <t>ctdPen</t>
+  </si>
+  <si>
+    <t>paidPrin</t>
+  </si>
+  <si>
+    <t>paidPen</t>
+  </si>
+  <si>
+    <t>ddPrin</t>
+  </si>
+  <si>
+    <t>penRate</t>
+  </si>
+  <si>
+    <t>extensionRate</t>
+  </si>
+  <si>
+    <t>serviceFeeScale</t>
+  </si>
+  <si>
+    <t>schdServFee</t>
+  </si>
+  <si>
+    <t>totPaidServFee</t>
+  </si>
+  <si>
+    <t>ctdServFee</t>
+  </si>
+  <si>
+    <t>paidServFee</t>
+  </si>
+  <si>
+    <t>totSchdBigint</t>
+  </si>
+  <si>
+    <t>serviceFeeType</t>
+  </si>
+  <si>
+    <t>repayType</t>
+  </si>
+  <si>
+    <t>loanType</t>
+  </si>
+  <si>
+    <t>amtType</t>
+  </si>
+  <si>
+    <t>totWavAmt</t>
+  </si>
+  <si>
+    <t>TBizProductInfo</t>
+  </si>
+  <si>
+    <t>TBizCustomerInfo</t>
+  </si>
+  <si>
+    <t>TBizLoanInfo</t>
+  </si>
+  <si>
+    <t>TBizLoanVoucherInfo</t>
+  </si>
+  <si>
+    <t>TBizRepayPlan</t>
+  </si>
+  <si>
+    <t>TBizAcctRecord</t>
+  </si>
+  <si>
+    <t>TBizAcct</t>
+  </si>
+  <si>
+    <t>TBizInvestInfo</t>
+  </si>
+  <si>
+    <t>TBizInvestPlan</t>
+  </si>
+  <si>
+    <t>TBizInOutVoucherInfo</t>
+  </si>
+  <si>
+    <t>TBizTransferVoucherInfo</t>
+  </si>
+  <si>
+    <t>cert_type</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>certType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -3619,264 +3832,57 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:2,删除:3</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_by</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改操作员</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>modified_by</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>createAt</t>
-  </si>
-  <si>
-    <t>updateAt</t>
-  </si>
-  <si>
-    <t>lendingAmt</t>
-  </si>
-  <si>
-    <t>lendingAcct</t>
-  </si>
-  <si>
-    <t>externalAcct</t>
-  </si>
-  <si>
-    <t>wavAmt</t>
-  </si>
-  <si>
-    <t>createBy</t>
-  </si>
-  <si>
-    <t>modifiedBy</t>
-  </si>
-  <si>
-    <t>receiveBigint</t>
-  </si>
-  <si>
-    <t>schdBigint</t>
-  </si>
-  <si>
-    <t>ctdBigint</t>
-  </si>
-  <si>
-    <t>paidBigint</t>
-  </si>
-  <si>
-    <t>availableBalance</t>
-  </si>
-  <si>
-    <t>freezeBalance</t>
-  </si>
-  <si>
-    <t>chdBigint</t>
-  </si>
-  <si>
-    <t>acctDate</t>
-  </si>
-  <si>
-    <t>beginDate</t>
-  </si>
-  <si>
-    <t>endDate</t>
-  </si>
-  <si>
-    <t>lendingDate</t>
-  </si>
-  <si>
-    <t>ddDate</t>
-  </si>
-  <si>
-    <t>balDir</t>
-  </si>
-  <si>
-    <t>serviceFee</t>
-  </si>
-  <si>
-    <t>cycleInterval</t>
-  </si>
-  <si>
-    <t>orgNo</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>penNumber</t>
-  </si>
-  <si>
-    <t>productNo</t>
-  </si>
-  <si>
-    <t>custNo</t>
-  </si>
-  <si>
-    <t>contrNo</t>
-  </si>
-  <si>
-    <t>termNo</t>
-  </si>
-  <si>
-    <t>extensionNo</t>
-  </si>
-  <si>
-    <t>loanNo</t>
-  </si>
-  <si>
-    <t>ddNum</t>
-  </si>
-  <si>
-    <t>inAcctNo</t>
-  </si>
-  <si>
-    <t>groupNo</t>
-  </si>
-  <si>
-    <t>voucherNo</t>
-  </si>
-  <si>
-    <t>acctNo</t>
-  </si>
-  <si>
-    <t>userNo</t>
-  </si>
-  <si>
-    <t>investNo</t>
-  </si>
-  <si>
-    <t>outAcctNo</t>
-  </si>
-  <si>
-    <t>isPen</t>
-  </si>
-  <si>
-    <t>schdPrin</t>
-  </si>
-  <si>
-    <t>schdPen</t>
-  </si>
-  <si>
-    <t>totPaidPrin</t>
-  </si>
-  <si>
-    <t>totPaidBigint</t>
-  </si>
-  <si>
-    <t>totPaidPen</t>
-  </si>
-  <si>
-    <t>ctdPrin</t>
-  </si>
-  <si>
-    <t>ctdPen</t>
-  </si>
-  <si>
-    <t>paidPrin</t>
-  </si>
-  <si>
-    <t>paidPen</t>
-  </si>
-  <si>
-    <t>ddPrin</t>
-  </si>
-  <si>
-    <t>penRate</t>
-  </si>
-  <si>
-    <t>extensionRate</t>
-  </si>
-  <si>
-    <t>serviceFeeScale</t>
-  </si>
-  <si>
-    <t>schdServFee</t>
-  </si>
-  <si>
-    <t>totPaidServFee</t>
-  </si>
-  <si>
-    <t>ctdServFee</t>
-  </si>
-  <si>
-    <t>paidServFee</t>
-  </si>
-  <si>
-    <t>totSchdBigint</t>
-  </si>
-  <si>
-    <t>serviceFeeType</t>
-  </si>
-  <si>
-    <t>repayType</t>
-  </si>
-  <si>
-    <t>loanType</t>
-  </si>
-  <si>
-    <t>amtType</t>
+      <t>tatus</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>certNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>acctType</t>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>balanceType</t>
-  </si>
-  <si>
-    <t>totWavAmt</t>
-  </si>
-  <si>
-    <t>TBizProductInfo</t>
-  </si>
-  <si>
-    <t>TBizCustomerInfo</t>
-  </si>
-  <si>
-    <t>TBizLoanInfo</t>
-  </si>
-  <si>
-    <t>TBizLoanVoucherInfo</t>
-  </si>
-  <si>
-    <t>TBizRepayPlan</t>
-  </si>
-  <si>
-    <t>TBizAcctRecord</t>
-  </si>
-  <si>
-    <t>TBizAcct</t>
-  </si>
-  <si>
-    <t>TBizInvestInfo</t>
-  </si>
-  <si>
-    <t>TBizInvestPlan</t>
-  </si>
-  <si>
-    <t>TBizInOutVoucherInfo</t>
-  </si>
-  <si>
-    <t>TBizTransferVoucherInfo</t>
-  </si>
-  <si>
-    <t>cert_type</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>certType</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>acct</t>
     </r>
     <r>
       <rPr>
@@ -3887,32 +3893,100 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>tatus</t>
-    </r>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮箱</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>certNo</t>
+      <t>_type</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:借款人账户,2:融资人账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可透支:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,不可透支</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:2</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资151开头,借款251开头</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资账户171开头,借款账户271开头,公司卡账户471开头,
+暂收371，暂付372，代偿370</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资账户、借款人账户指的是客户编号
+如果是公司卡账户、代偿账户、暂收暂付账户，为15000000001</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名称</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>userNo</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>availableBalance</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>freezeBalance</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:公司卡账户,2:融资账户,3:借款人账户,4:代偿账户,5:暂收,6:暂付</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -4511,74 +4585,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4681,6 +4689,72 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6946,29 +7020,29 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="M1" s="67" t="s">
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="M1" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="N1" s="68"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
       <c r="W1" s="19" t="s">
         <v>97</v>
       </c>
@@ -6977,18 +7051,18 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="L2" s="75" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="L2" s="66" t="s">
         <v>98</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -7029,18 +7103,18 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="L3" s="75"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="L3" s="66"/>
       <c r="M3" s="6">
         <v>1</v>
       </c>
@@ -7077,21 +7151,21 @@
       <c r="W3" s="11"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="92"/>
-      <c r="L4" s="75"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="L4" s="66"/>
       <c r="M4" s="6">
         <v>2</v>
       </c>
@@ -7128,17 +7202,17 @@
       <c r="W4" s="11"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="85"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
-      <c r="L5" s="75"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
+      <c r="L5" s="66"/>
       <c r="M5" s="6">
         <v>3</v>
       </c>
@@ -7174,17 +7248,17 @@
       <c r="W5" s="11"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="86"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="98"/>
-      <c r="L6" s="75"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="L6" s="66"/>
       <c r="M6" s="6">
         <v>4</v>
       </c>
@@ -7218,21 +7292,21 @@
       <c r="W6" s="11"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="101"/>
-      <c r="L7" s="75"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79"/>
+      <c r="L7" s="66"/>
       <c r="M7" s="6">
         <v>5</v>
       </c>
@@ -7266,17 +7340,17 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="85"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104"/>
-      <c r="L8" s="75"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
+      <c r="L8" s="66"/>
       <c r="M8" s="6">
         <v>6</v>
       </c>
@@ -7312,17 +7386,17 @@
       <c r="W8" s="11"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="85"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
-      <c r="L9" s="75"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="L9" s="66"/>
       <c r="M9" s="6">
         <v>7</v>
       </c>
@@ -7358,17 +7432,17 @@
       <c r="W9" s="11"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="85"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
-      <c r="L10" s="75"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
+      <c r="L10" s="66"/>
       <c r="M10" s="6">
         <v>8</v>
       </c>
@@ -7404,17 +7478,17 @@
       <c r="W10" s="11"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="86"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="107"/>
-      <c r="L11" s="75"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="6">
         <v>9</v>
       </c>
@@ -7448,21 +7522,21 @@
       <c r="W11" s="11"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
-      <c r="L12" s="75"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="88"/>
+      <c r="L12" s="66"/>
       <c r="M12" s="6">
         <v>10</v>
       </c>
@@ -7498,17 +7572,17 @@
       <c r="W12" s="11"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="85"/>
-      <c r="B13" s="111"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
-      <c r="L13" s="75"/>
+      <c r="A13" s="103"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
+      <c r="L13" s="66"/>
       <c r="M13" s="6">
         <v>11</v>
       </c>
@@ -7544,17 +7618,17 @@
       <c r="W13" s="11"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="85"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="113"/>
-      <c r="L14" s="75"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="91"/>
+      <c r="L14" s="66"/>
       <c r="M14" s="6">
         <v>12</v>
       </c>
@@ -7590,17 +7664,17 @@
       <c r="W14" s="11"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="85"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="113"/>
-      <c r="L15" s="75"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="6">
         <v>13</v>
       </c>
@@ -7634,17 +7708,17 @@
       <c r="W15" s="11"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="85"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="113"/>
-      <c r="L16" s="75"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="6">
         <v>14</v>
       </c>
@@ -7678,17 +7752,17 @@
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="86"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="L17" s="75"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="L17" s="66"/>
       <c r="M17" s="6">
         <v>15</v>
       </c>
@@ -7714,21 +7788,21 @@
       <c r="W17" s="11"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="119"/>
-      <c r="L18" s="75"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="97"/>
+      <c r="L18" s="66"/>
       <c r="M18" s="6">
         <v>16</v>
       </c>
@@ -7754,17 +7828,17 @@
       <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="88"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="122"/>
-      <c r="L19" s="75"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="6">
         <v>17</v>
       </c>
@@ -7791,16 +7865,16 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="L20" s="75"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="L20" s="66"/>
       <c r="M20" s="6"/>
       <c r="N20" s="11"/>
       <c r="O20" s="12"/>
@@ -7823,16 +7897,16 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="1"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="L21" s="75"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="L21" s="66"/>
       <c r="M21" s="6"/>
       <c r="N21" s="11"/>
       <c r="O21" s="12"/>
@@ -7855,16 +7929,16 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="1"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="L22" s="75"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="L22" s="66"/>
       <c r="M22" s="6"/>
       <c r="N22" s="11"/>
       <c r="O22" s="12"/>
@@ -7887,16 +7961,16 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="1"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="L23" s="75"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="L23" s="66"/>
       <c r="M23" s="6"/>
       <c r="N23" s="11"/>
       <c r="O23" s="12"/>
@@ -7919,16 +7993,16 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="1"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="L24" s="75"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="L24" s="66"/>
       <c r="M24" s="6"/>
       <c r="N24" s="11"/>
       <c r="O24" s="12"/>
@@ -7951,16 +8025,16 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="L25" s="75"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="L25" s="66"/>
       <c r="M25" s="6"/>
       <c r="N25" s="11"/>
       <c r="O25" s="12"/>
@@ -7983,16 +8057,16 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="1"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="L26" s="75"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="6" t="s">
         <v>143</v>
       </c>
@@ -8027,115 +8101,115 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="1"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="1"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="1"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="1"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="1"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="1"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="1"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="N33" s="70" t="s">
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="N33" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="U33" s="70"/>
-      <c r="V33" s="70"/>
-      <c r="W33" s="70"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="117"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
       <c r="X33" s="26" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="1"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="M34" s="75" t="s">
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="M34" s="66" t="s">
         <v>119</v>
       </c>
       <c r="N34" s="6" t="s">
@@ -8144,10 +8218,10 @@
       <c r="O34" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="P34" s="71" t="s">
+      <c r="P34" s="118" t="s">
         <v>146</v>
       </c>
-      <c r="Q34" s="72"/>
+      <c r="Q34" s="119"/>
       <c r="R34" s="27" t="s">
         <v>147</v>
       </c>
@@ -8157,10 +8231,10 @@
       <c r="T34" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="U34" s="73" t="s">
+      <c r="U34" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="V34" s="74"/>
+      <c r="V34" s="116"/>
       <c r="W34" s="12" t="s">
         <v>151</v>
       </c>
@@ -8170,16 +8244,16 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="1"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="M35" s="75"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="M35" s="66"/>
       <c r="N35" s="6">
         <v>1</v>
       </c>
@@ -8202,11 +8276,11 @@
       <c r="T35" s="27">
         <v>0</v>
       </c>
-      <c r="U35" s="73">
+      <c r="U35" s="115">
         <f>SUM(U36:U44)</f>
         <v>-162944</v>
       </c>
-      <c r="V35" s="74"/>
+      <c r="V35" s="116"/>
       <c r="W35" s="12">
         <f>O35+Q35+R35+S35-T35+U35</f>
         <v>-662731.32999999996</v>
@@ -8215,16 +8289,16 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="1"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="M36" s="75"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
+      <c r="M36" s="66"/>
       <c r="N36" s="6">
         <v>2</v>
       </c>
@@ -8249,16 +8323,16 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="1"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="M37" s="75"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="M37" s="66"/>
       <c r="N37" s="6">
         <v>3</v>
       </c>
@@ -8283,16 +8357,16 @@
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="1"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="M38" s="75"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="101"/>
+      <c r="M38" s="66"/>
       <c r="N38" s="6">
         <v>4</v>
       </c>
@@ -8312,7 +8386,7 @@
       <c r="X38" s="12"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="M39" s="75"/>
+      <c r="M39" s="66"/>
       <c r="N39" s="6">
         <v>5</v>
       </c>
@@ -8342,7 +8416,7 @@
       <c r="G40" s="49"/>
       <c r="H40" s="49"/>
       <c r="I40" s="49"/>
-      <c r="M40" s="75"/>
+      <c r="M40" s="66"/>
       <c r="N40" s="6">
         <v>6</v>
       </c>
@@ -8363,7 +8437,7 @@
     </row>
     <row r="41" spans="1:24">
       <c r="B41" s="48"/>
-      <c r="M41" s="75"/>
+      <c r="M41" s="66"/>
       <c r="N41" s="6">
         <v>7</v>
       </c>
@@ -8383,7 +8457,7 @@
       <c r="X41" s="12"/>
     </row>
     <row r="42" spans="1:24">
-      <c r="M42" s="75"/>
+      <c r="M42" s="66"/>
       <c r="N42" s="6">
         <v>8</v>
       </c>
@@ -8416,7 +8490,7 @@
       <c r="J43" s="49"/>
       <c r="K43" s="49"/>
       <c r="L43" s="49"/>
-      <c r="M43" s="75"/>
+      <c r="M43" s="66"/>
       <c r="N43" s="6">
         <v>9</v>
       </c>
@@ -8454,7 +8528,7 @@
       <c r="J44" s="49"/>
       <c r="K44" s="49"/>
       <c r="L44" s="49"/>
-      <c r="M44" s="75"/>
+      <c r="M44" s="66"/>
       <c r="N44" s="6">
         <v>10</v>
       </c>
@@ -8475,22 +8549,22 @@
       </c>
     </row>
     <row r="49" spans="13:24">
-      <c r="N49" s="76" t="s">
+      <c r="N49" s="113" t="s">
         <v>299</v>
       </c>
-      <c r="O49" s="77"/>
-      <c r="P49" s="77"/>
-      <c r="Q49" s="77"/>
-      <c r="R49" s="77"/>
-      <c r="S49" s="77"/>
-      <c r="T49" s="77"/>
-      <c r="U49" s="77"/>
-      <c r="V49" s="77"/>
-      <c r="W49" s="77"/>
-      <c r="X49" s="77"/>
+      <c r="O49" s="114"/>
+      <c r="P49" s="114"/>
+      <c r="Q49" s="114"/>
+      <c r="R49" s="114"/>
+      <c r="S49" s="114"/>
+      <c r="T49" s="114"/>
+      <c r="U49" s="114"/>
+      <c r="V49" s="114"/>
+      <c r="W49" s="114"/>
+      <c r="X49" s="114"/>
     </row>
     <row r="50" spans="13:24">
-      <c r="M50" s="75" t="s">
+      <c r="M50" s="66" t="s">
         <v>298</v>
       </c>
       <c r="N50" s="15"/>
@@ -8508,13 +8582,13 @@
         <v>167</v>
       </c>
       <c r="V50" s="17"/>
-      <c r="W50" s="78" t="s">
+      <c r="W50" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="X50" s="79"/>
+      <c r="X50" s="112"/>
     </row>
     <row r="51" spans="13:24">
-      <c r="M51" s="89"/>
+      <c r="M51" s="67"/>
       <c r="N51" s="17">
         <v>7</v>
       </c>
@@ -8532,13 +8606,13 @@
       <c r="V51" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="W51" s="78">
+      <c r="W51" s="111">
         <v>22000</v>
       </c>
-      <c r="X51" s="79"/>
+      <c r="X51" s="112"/>
     </row>
     <row r="52" spans="13:24">
-      <c r="M52" s="89"/>
+      <c r="M52" s="67"/>
       <c r="N52" s="17">
         <v>8</v>
       </c>
@@ -8556,13 +8630,13 @@
       <c r="V52" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="W52" s="78">
+      <c r="W52" s="111">
         <v>18000</v>
       </c>
-      <c r="X52" s="79"/>
+      <c r="X52" s="112"/>
     </row>
     <row r="53" spans="13:24">
-      <c r="M53" s="89"/>
+      <c r="M53" s="67"/>
       <c r="N53" s="17">
         <v>9</v>
       </c>
@@ -8580,13 +8654,13 @@
       <c r="V53" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="W53" s="78">
+      <c r="W53" s="111">
         <v>18000</v>
       </c>
-      <c r="X53" s="79"/>
+      <c r="X53" s="112"/>
     </row>
     <row r="54" spans="13:24">
-      <c r="M54" s="89"/>
+      <c r="M54" s="67"/>
       <c r="N54" s="17">
         <v>10</v>
       </c>
@@ -8604,13 +8678,13 @@
       <c r="V54" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="W54" s="78">
+      <c r="W54" s="111">
         <v>18000</v>
       </c>
-      <c r="X54" s="79"/>
+      <c r="X54" s="112"/>
     </row>
     <row r="55" spans="13:24">
-      <c r="M55" s="89"/>
+      <c r="M55" s="67"/>
       <c r="N55" s="17">
         <v>11</v>
       </c>
@@ -8628,13 +8702,13 @@
       <c r="V55" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="W55" s="78">
+      <c r="W55" s="111">
         <v>18000</v>
       </c>
-      <c r="X55" s="79"/>
+      <c r="X55" s="112"/>
     </row>
     <row r="56" spans="13:24">
-      <c r="M56" s="89"/>
+      <c r="M56" s="67"/>
       <c r="N56" s="17">
         <v>12</v>
       </c>
@@ -8652,13 +8726,13 @@
       <c r="V56" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="W56" s="78">
+      <c r="W56" s="111">
         <v>162944</v>
       </c>
-      <c r="X56" s="79"/>
+      <c r="X56" s="112"/>
     </row>
     <row r="57" spans="13:24">
-      <c r="M57" s="89"/>
+      <c r="M57" s="67"/>
       <c r="N57" s="17">
         <v>13</v>
       </c>
@@ -8674,11 +8748,11 @@
       <c r="V57" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="W57" s="78"/>
-      <c r="X57" s="79"/>
+      <c r="W57" s="111"/>
+      <c r="X57" s="112"/>
     </row>
     <row r="58" spans="13:24">
-      <c r="M58" s="89"/>
+      <c r="M58" s="67"/>
       <c r="N58" s="17">
         <v>14</v>
       </c>
@@ -8699,59 +8773,59 @@
       <c r="V58" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="W58" s="78"/>
-      <c r="X58" s="79"/>
+      <c r="W58" s="111"/>
+      <c r="X58" s="112"/>
     </row>
     <row r="59" spans="13:24">
-      <c r="M59" s="89"/>
+      <c r="M59" s="67"/>
       <c r="N59" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="O59" s="80"/>
-      <c r="P59" s="81"/>
-      <c r="Q59" s="82"/>
+      <c r="O59" s="107"/>
+      <c r="P59" s="108"/>
+      <c r="Q59" s="109"/>
       <c r="R59" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="S59" s="80">
+      <c r="S59" s="107">
         <f>S58+T58</f>
         <v>8533000</v>
       </c>
-      <c r="T59" s="82"/>
+      <c r="T59" s="109"/>
       <c r="U59" s="18">
         <f>U51+U52+U53+U54+U55+U56+U57+U58+W58</f>
         <v>582156</v>
       </c>
       <c r="V59" s="18"/>
-      <c r="W59" s="80">
+      <c r="W59" s="107">
         <f>SUM(W51:W58)</f>
         <v>256944</v>
       </c>
-      <c r="X59" s="82"/>
+      <c r="X59" s="109"/>
     </row>
     <row r="60" spans="13:24">
-      <c r="M60" s="89"/>
+      <c r="M60" s="67"/>
       <c r="N60" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="O60" s="83" t="s">
+      <c r="O60" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="P60" s="81"/>
-      <c r="Q60" s="81"/>
-      <c r="R60" s="82"/>
-      <c r="S60" s="80">
+      <c r="P60" s="108"/>
+      <c r="Q60" s="108"/>
+      <c r="R60" s="109"/>
+      <c r="S60" s="107">
         <f>S59-U59</f>
         <v>7950844</v>
       </c>
-      <c r="T60" s="81"/>
-      <c r="U60" s="82"/>
+      <c r="T60" s="108"/>
+      <c r="U60" s="109"/>
       <c r="V60" s="18"/>
       <c r="W60" s="18"/>
       <c r="X60" s="18"/>
     </row>
     <row r="61" spans="13:24">
-      <c r="M61" s="89"/>
+      <c r="M61" s="67"/>
       <c r="N61" s="17">
         <v>17</v>
       </c>
@@ -8767,7 +8841,7 @@
       <c r="X61" s="18"/>
     </row>
     <row r="62" spans="13:24">
-      <c r="M62" s="89"/>
+      <c r="M62" s="67"/>
       <c r="N62" s="17">
         <v>18</v>
       </c>
@@ -8783,7 +8857,7 @@
       <c r="X62" s="18"/>
     </row>
     <row r="63" spans="13:24">
-      <c r="M63" s="89"/>
+      <c r="M63" s="67"/>
       <c r="N63" s="17">
         <v>19</v>
       </c>
@@ -8799,7 +8873,7 @@
       <c r="X63" s="18"/>
     </row>
     <row r="64" spans="13:24">
-      <c r="M64" s="89"/>
+      <c r="M64" s="67"/>
       <c r="N64" s="17">
         <v>20</v>
       </c>
@@ -8816,15 +8890,40 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="M50:M64"/>
-    <mergeCell ref="B4:J6"/>
-    <mergeCell ref="B7:J11"/>
-    <mergeCell ref="B12:J17"/>
-    <mergeCell ref="B18:J19"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="M1:V1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="N33:W33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="M34:M44"/>
+    <mergeCell ref="N49:X49"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="S60:U60"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -8835,40 +8934,15 @@
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="B24:J24"/>
     <mergeCell ref="B25:J25"/>
-    <mergeCell ref="O59:Q59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="O60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="N49:X49"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="M34:M44"/>
-    <mergeCell ref="N33:W33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="M1:V1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="M50:M64"/>
+    <mergeCell ref="B4:J6"/>
+    <mergeCell ref="B7:J11"/>
+    <mergeCell ref="B12:J17"/>
+    <mergeCell ref="B18:J19"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8879,10 +8953,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="B1:V290"/>
+  <dimension ref="B1:V291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H188" sqref="H188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9140,7 +9214,7 @@
         <v>467</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="2:22">
@@ -9212,7 +9286,7 @@
       <c r="G23" s="55"/>
       <c r="H23" s="38"/>
       <c r="J23" s="38" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="2:22">
@@ -9232,7 +9306,7 @@
       <c r="G24" s="55"/>
       <c r="H24" s="38"/>
       <c r="J24" s="55" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K24" s="64"/>
       <c r="L24" s="64"/>
@@ -9296,7 +9370,7 @@
         <v>310</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="K26" s="57"/>
       <c r="L26" s="57"/>
@@ -9328,7 +9402,7 @@
         <v>478</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="K27" s="57"/>
       <c r="L27" s="57"/>
@@ -9360,7 +9434,7 @@
         <v>315</v>
       </c>
       <c r="J28" s="51" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="K28" s="57"/>
       <c r="L28" s="57"/>
@@ -9392,7 +9466,7 @@
         <v>479</v>
       </c>
       <c r="J29" s="51" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="K29" s="57"/>
       <c r="L29" s="57"/>
@@ -9424,7 +9498,7 @@
         <v>320</v>
       </c>
       <c r="J30" s="51" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K30" s="57"/>
       <c r="L30" s="57"/>
@@ -9456,7 +9530,7 @@
         <v>322</v>
       </c>
       <c r="J31" s="51" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="K31" s="49"/>
       <c r="L31" s="49"/>
@@ -9490,7 +9564,7 @@
         <v>352</v>
       </c>
       <c r="J32" s="51" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="K32" s="49"/>
       <c r="L32" s="49"/>
@@ -9524,7 +9598,7 @@
         <v>449</v>
       </c>
       <c r="J33" s="51" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="K33" s="49"/>
       <c r="L33" s="49"/>
@@ -9541,7 +9615,7 @@
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="51" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>268</v>
@@ -9556,15 +9630,15 @@
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
       <c r="J34" s="51" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="51" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D35" s="55" t="s">
         <v>303</v>
@@ -9576,7 +9650,7 @@
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
       <c r="J35" s="51" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -9596,7 +9670,7 @@
       <c r="G36" s="55"/>
       <c r="H36" s="55"/>
       <c r="J36" s="51" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -9618,7 +9692,7 @@
         <v>327</v>
       </c>
       <c r="J37" s="51" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -9684,7 +9758,7 @@
         <v>468</v>
       </c>
       <c r="J42" s="48" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -9718,7 +9792,7 @@
         <v>349</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D44" s="60" t="s">
         <v>303</v>
@@ -9730,10 +9804,10 @@
         <v>314</v>
       </c>
       <c r="G44" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="H44" s="55" t="s">
-        <v>330</v>
+        <v>591</v>
+      </c>
+      <c r="H44" s="56" t="s">
+        <v>590</v>
       </c>
       <c r="J44" s="55" t="s">
         <v>349</v>
@@ -9741,10 +9815,10 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" s="55" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D45" s="55" t="s">
         <v>337</v>
@@ -9756,7 +9830,7 @@
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
       <c r="J45" s="55" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
@@ -9771,10 +9845,10 @@
     </row>
     <row r="46" spans="2:22" ht="28.8">
       <c r="B46" s="51" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D46" s="55" t="s">
         <v>303</v>
@@ -9788,7 +9862,7 @@
         <v>338</v>
       </c>
       <c r="J46" s="51" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="15.6">
@@ -9796,7 +9870,7 @@
         <v>348</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D47" s="55" t="s">
         <v>339</v>
@@ -9824,10 +9898,10 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="51" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D48" s="55" t="s">
         <v>303</v>
@@ -9841,7 +9915,7 @@
         <v>343</v>
       </c>
       <c r="J48" s="51" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K48" s="49"/>
       <c r="L48" s="49"/>
@@ -9857,16 +9931,16 @@
     </row>
     <row r="49" spans="2:18">
       <c r="B49" s="51" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D49" s="55" t="s">
         <v>344</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -9880,7 +9954,7 @@
         <v>341</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D50" s="55" t="s">
         <v>345</v>
@@ -9899,7 +9973,7 @@
         <v>342</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="D51" s="55" t="s">
         <v>346</v>
@@ -9914,10 +9988,10 @@
     </row>
     <row r="52" spans="2:18" ht="15.6">
       <c r="B52" s="51" t="s">
-        <v>485</v>
+        <v>587</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D52" s="55" t="s">
         <v>303</v>
@@ -9928,15 +10002,15 @@
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38" t="s">
-        <v>486</v>
+        <v>588</v>
       </c>
       <c r="J52" s="51" t="s">
-        <v>485</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="2:18" ht="15.6">
       <c r="B53" s="51" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>212</v>
@@ -9945,20 +10019,20 @@
         <v>303</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="55" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J53" s="51" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="54" spans="2:18">
       <c r="B54" s="51" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>268</v>
@@ -9973,15 +10047,15 @@
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
       <c r="J54" s="51" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="55" spans="2:18">
       <c r="B55" s="51" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D55" s="55" t="s">
         <v>303</v>
@@ -9993,7 +10067,7 @@
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
       <c r="J55" s="51" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56" spans="2:18">
@@ -10013,7 +10087,7 @@
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
       <c r="J56" s="51" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="2:18">
@@ -10035,15 +10109,15 @@
         <v>327</v>
       </c>
       <c r="J57" s="51" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="2:18">
       <c r="B58" s="55" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="D58" s="55" t="s">
         <v>332</v>
@@ -10079,7 +10153,7 @@
         <v>469</v>
       </c>
       <c r="J61" s="48" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62" spans="2:18">
@@ -10151,7 +10225,7 @@
       <c r="G64" s="55"/>
       <c r="H64" s="38"/>
       <c r="J64" s="55" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="15">
@@ -10171,7 +10245,7 @@
       <c r="G65" s="55"/>
       <c r="H65" s="55"/>
       <c r="J65" s="55" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="15">
@@ -10191,7 +10265,7 @@
       <c r="G66" s="55"/>
       <c r="H66" s="55"/>
       <c r="J66" s="55" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="67" spans="2:10">
@@ -10211,7 +10285,7 @@
       <c r="G67" s="38"/>
       <c r="H67" s="40"/>
       <c r="J67" s="51" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="68" spans="2:10">
@@ -10233,7 +10307,7 @@
         <v>353</v>
       </c>
       <c r="J68" s="51" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="69" spans="2:10">
@@ -10253,7 +10327,7 @@
       <c r="G69" s="38"/>
       <c r="H69" s="40"/>
       <c r="J69" s="51" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70" spans="2:10">
@@ -10273,7 +10347,7 @@
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="J70" s="51" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -10293,7 +10367,7 @@
       <c r="G71" s="38"/>
       <c r="H71" s="38"/>
       <c r="J71" s="51" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="72" spans="2:10">
@@ -10355,7 +10429,7 @@
       <c r="G74" s="55"/>
       <c r="H74" s="38"/>
       <c r="J74" s="51" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="43.2">
@@ -10377,7 +10451,7 @@
         <v>322</v>
       </c>
       <c r="J75" s="51" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="76" spans="2:10">
@@ -10397,7 +10471,7 @@
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
       <c r="J76" s="51" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="77" spans="2:10">
@@ -10417,7 +10491,7 @@
       <c r="G77" s="38"/>
       <c r="H77" s="38"/>
       <c r="J77" s="55" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="78" spans="2:10">
@@ -10437,7 +10511,7 @@
       <c r="G78" s="38"/>
       <c r="H78" s="38"/>
       <c r="J78" s="55" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="15">
@@ -10459,7 +10533,7 @@
         <v>254</v>
       </c>
       <c r="J79" s="55" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="2:10">
@@ -10481,7 +10555,7 @@
         <v>233</v>
       </c>
       <c r="J80" s="55" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="2:10">
@@ -10503,7 +10577,7 @@
         <v>366</v>
       </c>
       <c r="J81" s="55" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="15">
@@ -10525,7 +10599,7 @@
         <v>318</v>
       </c>
       <c r="J82" s="51" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="83" spans="2:10">
@@ -10547,7 +10621,7 @@
         <v>413</v>
       </c>
       <c r="J83" s="55" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -10569,7 +10643,7 @@
         <v>317</v>
       </c>
       <c r="J84" s="51" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="85" spans="2:10">
@@ -10591,7 +10665,7 @@
         <v>315</v>
       </c>
       <c r="J85" s="51" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="86" spans="2:10">
@@ -10613,7 +10687,7 @@
         <v>320</v>
       </c>
       <c r="J86" s="51" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -10635,7 +10709,7 @@
         <v>444</v>
       </c>
       <c r="J87" s="55" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="88" spans="2:10">
@@ -10655,7 +10729,7 @@
       <c r="G88" s="38"/>
       <c r="H88" s="38"/>
       <c r="J88" s="55" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="89" spans="2:10">
@@ -10675,7 +10749,7 @@
       <c r="G89" s="38"/>
       <c r="H89" s="38"/>
       <c r="J89" s="55" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="90" spans="2:10">
@@ -10695,7 +10769,7 @@
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
       <c r="J90" s="55" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="91" spans="2:10">
@@ -10715,7 +10789,7 @@
       <c r="G91" s="38"/>
       <c r="H91" s="38"/>
       <c r="J91" s="55" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -10735,7 +10809,7 @@
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
       <c r="J92" s="55" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="93" spans="2:10">
@@ -10755,7 +10829,7 @@
       <c r="G93" s="38"/>
       <c r="H93" s="38"/>
       <c r="J93" s="55" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="94" spans="2:10">
@@ -10775,7 +10849,7 @@
       <c r="G94" s="38"/>
       <c r="H94" s="38"/>
       <c r="J94" s="55" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="95" spans="2:10">
@@ -10795,7 +10869,7 @@
       <c r="G95" s="38"/>
       <c r="H95" s="38"/>
       <c r="J95" s="55" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="96" spans="2:10">
@@ -10815,7 +10889,7 @@
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
       <c r="J96" s="55" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="97" spans="2:18">
@@ -10835,7 +10909,7 @@
       <c r="G97" s="38"/>
       <c r="H97" s="38"/>
       <c r="J97" s="55" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="98" spans="2:18" ht="43.2">
@@ -10862,7 +10936,7 @@
     </row>
     <row r="99" spans="2:18">
       <c r="B99" s="51" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C99" s="39" t="s">
         <v>268</v>
@@ -10877,15 +10951,15 @@
       <c r="G99" s="38"/>
       <c r="H99" s="38"/>
       <c r="J99" s="51" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="100" spans="2:18">
       <c r="B100" s="51" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D100" s="55" t="s">
         <v>303</v>
@@ -10897,7 +10971,7 @@
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
       <c r="J100" s="51" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="101" spans="2:18">
@@ -10917,7 +10991,7 @@
       <c r="G101" s="55"/>
       <c r="H101" s="55"/>
       <c r="J101" s="51" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102" spans="2:18">
@@ -10939,7 +11013,7 @@
         <v>327</v>
       </c>
       <c r="J102" s="51" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="2:18">
@@ -11033,7 +11107,7 @@
       <c r="G109" s="43"/>
       <c r="H109" s="44"/>
       <c r="J109" s="62" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="110" spans="2:18">
@@ -11105,7 +11179,7 @@
       <c r="G112" s="38"/>
       <c r="H112" s="38"/>
       <c r="J112" s="55" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="113" spans="2:18" ht="28.8">
@@ -11152,7 +11226,7 @@
     </row>
     <row r="115" spans="2:18">
       <c r="B115" s="51" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C115" s="39" t="s">
         <v>268</v>
@@ -11167,15 +11241,15 @@
       <c r="G115" s="38"/>
       <c r="H115" s="38"/>
       <c r="J115" s="51" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="2:18">
       <c r="B116" s="51" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C116" s="39" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D116" s="55" t="s">
         <v>303</v>
@@ -11187,7 +11261,7 @@
       <c r="G116" s="38"/>
       <c r="H116" s="38"/>
       <c r="J116" s="51" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="117" spans="2:18">
@@ -11207,7 +11281,7 @@
       <c r="G117" s="55"/>
       <c r="H117" s="55"/>
       <c r="J117" s="51" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="118" spans="2:18">
@@ -11229,7 +11303,7 @@
         <v>327</v>
       </c>
       <c r="J118" s="51" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="2:18">
@@ -11294,7 +11368,7 @@
         <v>471</v>
       </c>
       <c r="J125" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="126" spans="2:18">
@@ -11366,7 +11440,7 @@
       <c r="G128" s="38"/>
       <c r="H128" s="38"/>
       <c r="J128" s="55" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="129" spans="2:21" ht="15">
@@ -11386,7 +11460,7 @@
       <c r="G129" s="38"/>
       <c r="H129" s="38"/>
       <c r="J129" s="55" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="2:21" ht="15">
@@ -11406,7 +11480,7 @@
       <c r="G130" s="38"/>
       <c r="H130" s="40"/>
       <c r="J130" s="55" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="K130" s="64"/>
       <c r="L130" s="64"/>
@@ -11435,7 +11509,7 @@
       <c r="G131" s="38"/>
       <c r="H131" s="38"/>
       <c r="J131" s="55" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="K131" s="64"/>
       <c r="L131" s="64"/>
@@ -11464,7 +11538,7 @@
       <c r="G132" s="38"/>
       <c r="H132" s="40"/>
       <c r="J132" s="51" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="133" spans="2:21" ht="15">
@@ -11486,7 +11560,7 @@
         <v>63</v>
       </c>
       <c r="J133" s="51" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="134" spans="2:21">
@@ -11537,7 +11611,7 @@
       <c r="G135" s="38"/>
       <c r="H135" s="38"/>
       <c r="J135" s="51" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="136" spans="2:21">
@@ -11557,7 +11631,7 @@
       <c r="G136" s="38"/>
       <c r="H136" s="38"/>
       <c r="J136" s="51" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="137" spans="2:21" ht="15">
@@ -11577,7 +11651,7 @@
       <c r="G137" s="38"/>
       <c r="H137" s="38"/>
       <c r="J137" s="51" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="K137" s="49"/>
       <c r="L137" s="49"/>
@@ -11608,7 +11682,7 @@
       <c r="G138" s="38"/>
       <c r="H138" s="38"/>
       <c r="J138" s="55" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K138" s="49"/>
       <c r="L138" s="49"/>
@@ -11641,7 +11715,7 @@
         <v>236</v>
       </c>
       <c r="J139" s="55" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K139" s="49"/>
       <c r="L139" s="49"/>
@@ -11674,7 +11748,7 @@
         <v>256</v>
       </c>
       <c r="J140" s="55" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="K140" s="49"/>
       <c r="L140" s="49"/>
@@ -11705,7 +11779,7 @@
       <c r="G141" s="38"/>
       <c r="H141" s="38"/>
       <c r="J141" s="55" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="142" spans="2:21">
@@ -11725,7 +11799,7 @@
       <c r="G142" s="38"/>
       <c r="H142" s="38"/>
       <c r="J142" s="55" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="143" spans="2:21">
@@ -11745,7 +11819,7 @@
       <c r="G143" s="38"/>
       <c r="H143" s="38"/>
       <c r="J143" s="55" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="144" spans="2:21">
@@ -11765,7 +11839,7 @@
       <c r="G144" s="38"/>
       <c r="H144" s="38"/>
       <c r="J144" s="55" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="145" spans="2:18">
@@ -11785,7 +11859,7 @@
       <c r="G145" s="38"/>
       <c r="H145" s="38"/>
       <c r="J145" s="55" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="146" spans="2:18">
@@ -11805,7 +11879,7 @@
       <c r="G146" s="38"/>
       <c r="H146" s="38"/>
       <c r="J146" s="55" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="147" spans="2:18">
@@ -11825,7 +11899,7 @@
       <c r="G147" s="38"/>
       <c r="H147" s="38"/>
       <c r="J147" s="55" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="148" spans="2:18">
@@ -11845,7 +11919,7 @@
       <c r="G148" s="38"/>
       <c r="H148" s="38"/>
       <c r="J148" s="55" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="149" spans="2:18">
@@ -11865,7 +11939,7 @@
       <c r="G149" s="38"/>
       <c r="H149" s="38"/>
       <c r="J149" s="55" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="150" spans="2:18" ht="28.8">
@@ -11892,7 +11966,7 @@
     </row>
     <row r="151" spans="2:18">
       <c r="B151" s="51" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C151" s="39" t="s">
         <v>268</v>
@@ -11907,15 +11981,15 @@
       <c r="G151" s="38"/>
       <c r="H151" s="38"/>
       <c r="J151" s="51" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="152" spans="2:18">
       <c r="B152" s="51" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C152" s="39" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D152" s="55" t="s">
         <v>303</v>
@@ -11927,7 +12001,7 @@
       <c r="G152" s="38"/>
       <c r="H152" s="38"/>
       <c r="J152" s="51" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="153" spans="2:18">
@@ -11947,7 +12021,7 @@
       <c r="G153" s="55"/>
       <c r="H153" s="55"/>
       <c r="J153" s="51" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="154" spans="2:18">
@@ -11969,7 +12043,7 @@
         <v>327</v>
       </c>
       <c r="J154" s="51" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="2:18">
@@ -12013,7 +12087,7 @@
         <v>472</v>
       </c>
       <c r="J160" s="48" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="2:18">
@@ -12085,7 +12159,7 @@
       <c r="G163" s="38"/>
       <c r="H163" s="38"/>
       <c r="J163" s="55" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="164" spans="2:18" ht="15">
@@ -12105,7 +12179,7 @@
       <c r="G164" s="38"/>
       <c r="H164" s="38"/>
       <c r="J164" s="55" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="165" spans="2:18" ht="28.8">
@@ -12127,7 +12201,7 @@
         <v>396</v>
       </c>
       <c r="J165" s="51" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="K165" s="59"/>
       <c r="L165" s="59"/>
@@ -12157,7 +12231,7 @@
         <v>380</v>
       </c>
       <c r="J166" s="52" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="167" spans="2:18" ht="43.2">
@@ -12201,7 +12275,7 @@
         <v>425</v>
       </c>
       <c r="J168" s="55" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="2:18">
@@ -12221,7 +12295,7 @@
       <c r="G169" s="38"/>
       <c r="H169" s="40"/>
       <c r="J169" s="51" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K169" s="59"/>
       <c r="L169" s="59"/>
@@ -12275,7 +12349,7 @@
         <v>249</v>
       </c>
       <c r="J171" s="51" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="K171" s="48"/>
     </row>
@@ -12304,7 +12378,7 @@
     </row>
     <row r="173" spans="2:18">
       <c r="B173" s="51" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C173" s="39" t="s">
         <v>268</v>
@@ -12319,15 +12393,15 @@
       <c r="G173" s="38"/>
       <c r="H173" s="38"/>
       <c r="J173" s="51" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="174" spans="2:18">
       <c r="B174" s="51" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C174" s="39" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D174" s="55" t="s">
         <v>303</v>
@@ -12339,7 +12413,7 @@
       <c r="G174" s="38"/>
       <c r="H174" s="38"/>
       <c r="J174" s="51" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="175" spans="2:18">
@@ -12359,7 +12433,7 @@
       <c r="G175" s="55"/>
       <c r="H175" s="55"/>
       <c r="J175" s="51" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="176" spans="2:18">
@@ -12381,7 +12455,7 @@
         <v>327</v>
       </c>
       <c r="J176" s="51" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="177" spans="2:18">
@@ -12425,7 +12499,7 @@
         <v>473</v>
       </c>
       <c r="J181" s="48" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="182" spans="2:18">
@@ -12455,12 +12529,12 @@
       </c>
       <c r="K182" s="48"/>
     </row>
-    <row r="183" spans="2:18" ht="15">
+    <row r="183" spans="2:18" ht="43.2">
       <c r="B183" s="55" t="s">
         <v>349</v>
       </c>
       <c r="C183" s="55" t="s">
-        <v>191</v>
+        <v>595</v>
       </c>
       <c r="D183" s="61" t="s">
         <v>303</v>
@@ -12472,16 +12546,16 @@
         <v>314</v>
       </c>
       <c r="G183" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="H183" s="55" t="s">
-        <v>330</v>
+        <v>591</v>
+      </c>
+      <c r="H183" s="56" t="s">
+        <v>592</v>
       </c>
       <c r="J183" s="55" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="184" spans="2:18" ht="72">
+    <row r="184" spans="2:18" ht="43.2">
       <c r="B184" s="55" t="s">
         <v>456</v>
       </c>
@@ -12497,41 +12571,40 @@
       <c r="F184" s="38"/>
       <c r="G184" s="38"/>
       <c r="H184" s="56" t="s">
-        <v>483</v>
+        <v>593</v>
       </c>
       <c r="J184" s="55" t="s">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="K184" s="48"/>
     </row>
     <row r="185" spans="2:18">
       <c r="B185" s="55" t="s">
-        <v>403</v>
-      </c>
-      <c r="C185" s="51" t="s">
-        <v>257</v>
+        <v>594</v>
+      </c>
+      <c r="C185" s="38" t="s">
+        <v>596</v>
       </c>
       <c r="D185" s="55" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="E185" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F185" s="38"/>
       <c r="G185" s="38"/>
-      <c r="H185" s="55" t="s">
-        <v>310</v>
-      </c>
-      <c r="J185" s="55" t="s">
-        <v>515</v>
-      </c>
+      <c r="H185" s="40"/>
+      <c r="J185" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="K185" s="48"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="55" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C186" s="51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D186" s="55" t="s">
         <v>308</v>
@@ -12545,37 +12618,37 @@
         <v>310</v>
       </c>
       <c r="J186" s="55" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="187" spans="2:18" ht="28.8">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="187" spans="2:18">
       <c r="B187" s="55" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C187" s="51" t="s">
-        <v>404</v>
-      </c>
-      <c r="D187" s="61" t="s">
-        <v>303</v>
+        <v>258</v>
+      </c>
+      <c r="D187" s="55" t="s">
+        <v>308</v>
       </c>
       <c r="E187" s="55" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
-      <c r="H187" s="56" t="s">
-        <v>406</v>
+      <c r="H187" s="55" t="s">
+        <v>310</v>
       </c>
       <c r="J187" s="55" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="188" spans="2:18" ht="15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="188" spans="2:18" ht="28.8">
       <c r="B188" s="55" t="s">
-        <v>409</v>
+        <v>586</v>
       </c>
       <c r="C188" s="51" t="s">
-        <v>260</v>
+        <v>404</v>
       </c>
       <c r="D188" s="61" t="s">
         <v>303</v>
@@ -12586,18 +12659,18 @@
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
       <c r="H188" s="56" t="s">
-        <v>410</v>
+        <v>600</v>
       </c>
       <c r="J188" s="55" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
     </row>
     <row r="189" spans="2:18" ht="15">
       <c r="B189" s="55" t="s">
-        <v>488</v>
+        <v>409</v>
       </c>
       <c r="C189" s="51" t="s">
-        <v>487</v>
+        <v>260</v>
       </c>
       <c r="D189" s="61" t="s">
         <v>303</v>
@@ -12608,20 +12681,20 @@
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
       <c r="H189" s="56" t="s">
-        <v>489</v>
+        <v>589</v>
       </c>
       <c r="J189" s="55" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="190" spans="2:18">
-      <c r="B190" s="51" t="s">
-        <v>500</v>
-      </c>
-      <c r="C190" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="D190" s="55" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="190" spans="2:18" ht="15">
+      <c r="B190" s="55" t="s">
+        <v>585</v>
+      </c>
+      <c r="C190" s="51" t="s">
+        <v>484</v>
+      </c>
+      <c r="D190" s="61" t="s">
         <v>303</v>
       </c>
       <c r="E190" s="55" t="s">
@@ -12629,17 +12702,19 @@
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
-      <c r="H190" s="38"/>
-      <c r="J190" s="51" t="s">
-        <v>509</v>
+      <c r="H190" s="56" t="s">
+        <v>485</v>
+      </c>
+      <c r="J190" s="55" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="191" spans="2:18">
       <c r="B191" s="51" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C191" s="39" t="s">
-        <v>501</v>
+        <v>268</v>
       </c>
       <c r="D191" s="55" t="s">
         <v>303</v>
@@ -12651,35 +12726,35 @@
       <c r="G191" s="38"/>
       <c r="H191" s="38"/>
       <c r="J191" s="51" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="192" spans="2:18">
       <c r="B192" s="51" t="s">
-        <v>324</v>
+        <v>498</v>
       </c>
       <c r="C192" s="39" t="s">
-        <v>84</v>
+        <v>497</v>
       </c>
       <c r="D192" s="55" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="E192" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="F192" s="55"/>
-      <c r="G192" s="55"/>
-      <c r="H192" s="55"/>
+        <v>304</v>
+      </c>
+      <c r="F192" s="38"/>
+      <c r="G192" s="38"/>
+      <c r="H192" s="38"/>
       <c r="J192" s="51" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="193" spans="2:18">
       <c r="B193" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C193" s="39" t="s">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="D193" s="55" t="s">
         <v>326</v>
@@ -12689,60 +12764,70 @@
       </c>
       <c r="F193" s="55"/>
       <c r="G193" s="55"/>
-      <c r="H193" s="55" t="s">
-        <v>327</v>
-      </c>
+      <c r="H193" s="55"/>
       <c r="J193" s="51" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="194" spans="2:18">
-      <c r="B194" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="C194" s="38" t="s">
-        <v>13</v>
+      <c r="B194" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C194" s="39" t="s">
+        <v>251</v>
       </c>
       <c r="D194" s="55" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E194" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="F194" s="38"/>
-      <c r="G194" s="38"/>
-      <c r="H194" s="38"/>
-      <c r="J194" s="55" t="s">
+      <c r="F194" s="55"/>
+      <c r="G194" s="55"/>
+      <c r="H194" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="J194" s="51" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="195" spans="2:18">
+      <c r="B195" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="K194" s="49"/>
-      <c r="L194" s="50"/>
-      <c r="M194" s="50"/>
-      <c r="N194" s="50"/>
-      <c r="O194" s="50"/>
-      <c r="P194" s="50"/>
-      <c r="Q194" s="50"/>
-      <c r="R194" s="50"/>
-    </row>
-    <row r="195" spans="2:18">
-      <c r="B195" s="55"/>
-      <c r="C195" s="39"/>
-      <c r="D195" s="55"/>
-      <c r="E195" s="55"/>
+      <c r="C195" s="38" t="s">
+        <v>582</v>
+      </c>
+      <c r="D195" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="E195" s="55" t="s">
+        <v>312</v>
+      </c>
       <c r="F195" s="38"/>
       <c r="G195" s="38"/>
-      <c r="H195" s="40"/>
-      <c r="J195" s="55"/>
+      <c r="H195" s="38"/>
+      <c r="J195" s="55" t="s">
+        <v>581</v>
+      </c>
+      <c r="K195" s="49"/>
+      <c r="L195" s="50"/>
+      <c r="M195" s="50"/>
+      <c r="N195" s="50"/>
+      <c r="O195" s="50"/>
+      <c r="P195" s="50"/>
+      <c r="Q195" s="50"/>
+      <c r="R195" s="50"/>
     </row>
     <row r="196" spans="2:18">
-      <c r="B196" s="38"/>
-      <c r="C196" s="51"/>
-      <c r="D196" s="38"/>
-      <c r="E196" s="38"/>
+      <c r="B196" s="55"/>
+      <c r="C196" s="39"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="55"/>
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
-      <c r="H196" s="38"/>
-      <c r="J196" s="38"/>
+      <c r="H196" s="40"/>
+      <c r="J196" s="55"/>
     </row>
     <row r="197" spans="2:18">
       <c r="B197" s="38"/>
@@ -12754,122 +12839,110 @@
       <c r="H197" s="38"/>
       <c r="J197" s="38"/>
     </row>
-    <row r="200" spans="2:18">
-      <c r="B200" s="48" t="s">
-        <v>414</v>
-      </c>
-      <c r="J200" s="48" t="s">
-        <v>414</v>
-      </c>
+    <row r="198" spans="2:18">
+      <c r="B198" s="38"/>
+      <c r="C198" s="51"/>
+      <c r="D198" s="38"/>
+      <c r="E198" s="38"/>
+      <c r="F198" s="38"/>
+      <c r="G198" s="38"/>
+      <c r="H198" s="38"/>
+      <c r="J198" s="38"/>
     </row>
     <row r="201" spans="2:18">
       <c r="B201" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="J201" s="48" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="202" spans="2:18">
+      <c r="B202" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="J201" s="48" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="202" spans="2:18">
-      <c r="B202" s="38" t="s">
+      <c r="J202" s="48" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="203" spans="2:18">
+      <c r="B203" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C202" s="38" t="s">
+      <c r="C203" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D202" s="38" t="s">
+      <c r="D203" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E202" s="38" t="s">
+      <c r="E203" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F202" s="55" t="s">
+      <c r="F203" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="G202" s="55" t="s">
+      <c r="G203" s="55" t="s">
         <v>465</v>
       </c>
-      <c r="H202" s="38" t="s">
+      <c r="H203" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="J202" s="38" t="s">
+      <c r="J203" s="38" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="2:18" ht="15">
-      <c r="B203" s="55" t="s">
-        <v>349</v>
-      </c>
-      <c r="C203" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="D203" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="E203" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="F203" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="G203" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="H203" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="J203" s="55" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="204" spans="2:18" ht="15">
       <c r="B204" s="55" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="C204" s="38" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="D204" s="61" t="s">
         <v>303</v>
       </c>
       <c r="E204" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="F204" s="38"/>
-      <c r="G204" s="38"/>
-      <c r="H204" s="38"/>
+        <v>304</v>
+      </c>
+      <c r="F204" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="G204" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="H204" s="55" t="s">
+        <v>330</v>
+      </c>
       <c r="J204" s="55" t="s">
-        <v>526</v>
+        <v>349</v>
       </c>
     </row>
     <row r="205" spans="2:18" ht="15">
       <c r="B205" s="55" t="s">
-        <v>456</v>
-      </c>
-      <c r="C205" s="55" t="s">
-        <v>481</v>
+        <v>302</v>
+      </c>
+      <c r="C205" s="38" t="s">
+        <v>209</v>
       </c>
       <c r="D205" s="61" t="s">
         <v>303</v>
       </c>
       <c r="E205" s="55" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F205" s="38"/>
       <c r="G205" s="38"/>
-      <c r="H205" s="38" t="s">
-        <v>279</v>
-      </c>
+      <c r="H205" s="38"/>
       <c r="J205" s="55" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
     </row>
     <row r="206" spans="2:18" ht="15">
-      <c r="B206" s="62" t="s">
-        <v>411</v>
+      <c r="B206" s="55" t="s">
+        <v>456</v>
       </c>
       <c r="C206" s="55" t="s">
-        <v>242</v>
+        <v>481</v>
       </c>
       <c r="D206" s="61" t="s">
         <v>303</v>
@@ -12880,63 +12953,65 @@
       <c r="F206" s="38"/>
       <c r="G206" s="38"/>
       <c r="H206" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="J206" s="62" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="207" spans="2:18">
-      <c r="B207" s="55" t="s">
-        <v>462</v>
-      </c>
-      <c r="C207" s="51" t="s">
-        <v>451</v>
-      </c>
-      <c r="D207" s="55" t="s">
-        <v>339</v>
+        <v>279</v>
+      </c>
+      <c r="J206" s="55" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="207" spans="2:18" ht="15">
+      <c r="B207" s="62" t="s">
+        <v>411</v>
+      </c>
+      <c r="C207" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="D207" s="61" t="s">
+        <v>303</v>
       </c>
       <c r="E207" s="55" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F207" s="38"/>
       <c r="G207" s="38"/>
       <c r="H207" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="J207" s="55" t="s">
-        <v>507</v>
+        <v>267</v>
+      </c>
+      <c r="J207" s="62" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="208" spans="2:18">
-      <c r="B208" s="51" t="s">
-        <v>354</v>
-      </c>
-      <c r="C208" s="39" t="s">
-        <v>273</v>
+      <c r="B208" s="55" t="s">
+        <v>462</v>
+      </c>
+      <c r="C208" s="51" t="s">
+        <v>451</v>
       </c>
       <c r="D208" s="55" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="E208" s="55" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F208" s="38"/>
       <c r="G208" s="38"/>
-      <c r="H208" s="40"/>
-      <c r="J208" s="51" t="s">
-        <v>354</v>
+      <c r="H208" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="J208" s="55" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="209" spans="2:22">
       <c r="B209" s="51" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C209" s="39" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D209" s="55" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="E209" s="55" t="s">
         <v>305</v>
@@ -12945,15 +13020,15 @@
       <c r="G209" s="38"/>
       <c r="H209" s="40"/>
       <c r="J209" s="51" t="s">
-        <v>518</v>
+        <v>354</v>
       </c>
     </row>
     <row r="210" spans="2:22">
       <c r="B210" s="51" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C210" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D210" s="55" t="s">
         <v>355</v>
@@ -12963,157 +13038,155 @@
       </c>
       <c r="F210" s="38"/>
       <c r="G210" s="38"/>
-      <c r="H210" s="38"/>
+      <c r="H210" s="40"/>
       <c r="J210" s="51" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="211" spans="2:22">
       <c r="B211" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C211" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D211" s="55" t="s">
         <v>355</v>
       </c>
       <c r="E211" s="55" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F211" s="38"/>
       <c r="G211" s="38"/>
-      <c r="H211" s="38" t="s">
-        <v>265</v>
-      </c>
+      <c r="H211" s="38"/>
       <c r="J211" s="51" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="212" spans="2:22">
       <c r="B212" s="51" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C212" s="39" t="s">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="D212" s="55" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="E212" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="F212" s="55"/>
-      <c r="G212" s="55"/>
-      <c r="H212" s="38"/>
+        <v>312</v>
+      </c>
+      <c r="F212" s="38"/>
+      <c r="G212" s="38"/>
+      <c r="H212" s="38" t="s">
+        <v>265</v>
+      </c>
       <c r="J212" s="51" t="s">
-        <v>359</v>
+        <v>514</v>
       </c>
     </row>
     <row r="213" spans="2:22">
       <c r="B213" s="51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C213" s="39" t="s">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="D213" s="55" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E213" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="F213" s="38"/>
-      <c r="G213" s="38"/>
+        <v>305</v>
+      </c>
+      <c r="F213" s="55"/>
+      <c r="G213" s="55"/>
       <c r="H213" s="38"/>
       <c r="J213" s="51" t="s">
-        <v>532</v>
+        <v>359</v>
       </c>
     </row>
     <row r="214" spans="2:22">
       <c r="B214" s="51" t="s">
-        <v>447</v>
-      </c>
-      <c r="C214" s="51" t="s">
-        <v>448</v>
+        <v>360</v>
+      </c>
+      <c r="C214" s="39" t="s">
+        <v>270</v>
       </c>
       <c r="D214" s="55" t="s">
         <v>303</v>
       </c>
       <c r="E214" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="F214" s="55"/>
-      <c r="G214" s="55"/>
-      <c r="H214" s="56" t="s">
-        <v>449</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="F214" s="38"/>
+      <c r="G214" s="38"/>
+      <c r="H214" s="38"/>
       <c r="J214" s="51" t="s">
-        <v>525</v>
-      </c>
-      <c r="K214" s="49"/>
-      <c r="L214" s="49"/>
-      <c r="M214" s="49"/>
-      <c r="N214" s="49"/>
-      <c r="O214" s="49"/>
-      <c r="P214" s="49"/>
-      <c r="Q214" s="49"/>
-      <c r="R214" s="49"/>
-      <c r="S214" s="49"/>
-      <c r="T214" s="49"/>
-      <c r="U214" s="49"/>
-      <c r="V214" s="49"/>
-    </row>
-    <row r="215" spans="2:22" ht="28.8">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="215" spans="2:22">
       <c r="B215" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="C215" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="D215" s="61" t="s">
+        <v>447</v>
+      </c>
+      <c r="C215" s="51" t="s">
+        <v>448</v>
+      </c>
+      <c r="D215" s="55" t="s">
         <v>303</v>
       </c>
       <c r="E215" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="F215" s="38"/>
-      <c r="G215" s="38"/>
+      <c r="F215" s="55"/>
+      <c r="G215" s="55"/>
       <c r="H215" s="56" t="s">
-        <v>412</v>
+        <v>449</v>
       </c>
       <c r="J215" s="51" t="s">
+        <v>519</v>
+      </c>
+      <c r="K215" s="49"/>
+      <c r="L215" s="49"/>
+      <c r="M215" s="49"/>
+      <c r="N215" s="49"/>
+      <c r="O215" s="49"/>
+      <c r="P215" s="49"/>
+      <c r="Q215" s="49"/>
+      <c r="R215" s="49"/>
+      <c r="S215" s="49"/>
+      <c r="T215" s="49"/>
+      <c r="U215" s="49"/>
+      <c r="V215" s="49"/>
+    </row>
+    <row r="216" spans="2:22" ht="28.8">
+      <c r="B216" s="51" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="216" spans="2:22">
-      <c r="B216" s="55" t="s">
-        <v>367</v>
-      </c>
       <c r="C216" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="D216" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="D216" s="61" t="s">
         <v>303</v>
       </c>
       <c r="E216" s="55" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F216" s="38"/>
       <c r="G216" s="38"/>
-      <c r="H216" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="J216" s="55" t="s">
-        <v>522</v>
+      <c r="H216" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="J216" s="51" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="217" spans="2:22">
       <c r="B217" s="55" t="s">
-        <v>378</v>
-      </c>
-      <c r="C217" s="51" t="s">
-        <v>446</v>
+        <v>367</v>
+      </c>
+      <c r="C217" s="39" t="s">
+        <v>272</v>
       </c>
       <c r="D217" s="55" t="s">
         <v>303</v>
@@ -13123,57 +13196,59 @@
       </c>
       <c r="F217" s="38"/>
       <c r="G217" s="38"/>
-      <c r="H217" s="38"/>
+      <c r="H217" s="55" t="s">
+        <v>413</v>
+      </c>
       <c r="J217" s="55" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="218" spans="2:22">
       <c r="B218" s="55" t="s">
-        <v>379</v>
-      </c>
-      <c r="C218" s="39" t="s">
-        <v>271</v>
+        <v>378</v>
+      </c>
+      <c r="C218" s="51" t="s">
+        <v>446</v>
       </c>
       <c r="D218" s="55" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E218" s="55" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F218" s="38"/>
       <c r="G218" s="38"/>
       <c r="H218" s="38"/>
       <c r="J218" s="55" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
     </row>
     <row r="219" spans="2:22">
       <c r="B219" s="55" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="C219" s="39" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D219" s="55" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E219" s="55" t="s">
         <v>312</v>
       </c>
       <c r="F219" s="38"/>
       <c r="G219" s="38"/>
-      <c r="H219" s="40"/>
+      <c r="H219" s="38"/>
       <c r="J219" s="55" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="220" spans="2:22">
       <c r="B220" s="55" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="C220" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D220" s="55" t="s">
         <v>308</v>
@@ -13183,17 +13258,17 @@
       </c>
       <c r="F220" s="38"/>
       <c r="G220" s="38"/>
-      <c r="H220" s="38"/>
+      <c r="H220" s="40"/>
       <c r="J220" s="55" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="221" spans="2:22">
       <c r="B221" s="55" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="C221" s="39" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="D221" s="55" t="s">
         <v>308</v>
@@ -13205,15 +13280,15 @@
       <c r="G221" s="38"/>
       <c r="H221" s="38"/>
       <c r="J221" s="55" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="222" spans="2:22" ht="28.8">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="222" spans="2:22">
       <c r="B222" s="55" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="C222" s="39" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D222" s="55" t="s">
         <v>308</v>
@@ -13223,39 +13298,39 @@
       </c>
       <c r="F222" s="38"/>
       <c r="G222" s="38"/>
-      <c r="H222" s="40" t="s">
-        <v>289</v>
-      </c>
+      <c r="H222" s="38"/>
       <c r="J222" s="55" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="223" spans="2:22">
-      <c r="B223" s="51" t="s">
-        <v>500</v>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="223" spans="2:22" ht="28.8">
+      <c r="B223" s="55" t="s">
+        <v>393</v>
       </c>
       <c r="C223" s="39" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="D223" s="55" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E223" s="55" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="F223" s="38"/>
       <c r="G223" s="38"/>
-      <c r="H223" s="38"/>
-      <c r="J223" s="51" t="s">
-        <v>509</v>
+      <c r="H223" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="J223" s="55" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="224" spans="2:22">
       <c r="B224" s="51" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C224" s="39" t="s">
-        <v>501</v>
+        <v>268</v>
       </c>
       <c r="D224" s="55" t="s">
         <v>303</v>
@@ -13267,35 +13342,35 @@
       <c r="G224" s="38"/>
       <c r="H224" s="38"/>
       <c r="J224" s="51" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="225" spans="2:21">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="225" spans="2:19">
       <c r="B225" s="51" t="s">
+        <v>498</v>
+      </c>
+      <c r="C225" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="D225" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="E225" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="F225" s="38"/>
+      <c r="G225" s="38"/>
+      <c r="H225" s="38"/>
+      <c r="J225" s="51" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="226" spans="2:19">
+      <c r="B226" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="C225" s="39" t="s">
+      <c r="C226" s="39" t="s">
         <v>84</v>
-      </c>
-      <c r="D225" s="55" t="s">
-        <v>326</v>
-      </c>
-      <c r="E225" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="F225" s="55"/>
-      <c r="G225" s="55"/>
-      <c r="H225" s="55"/>
-      <c r="J225" s="51" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="226" spans="2:21">
-      <c r="B226" s="51" t="s">
-        <v>325</v>
-      </c>
-      <c r="C226" s="39" t="s">
-        <v>251</v>
       </c>
       <c r="D226" s="55" t="s">
         <v>326</v>
@@ -13305,62 +13380,72 @@
       </c>
       <c r="F226" s="55"/>
       <c r="G226" s="55"/>
-      <c r="H226" s="55" t="s">
-        <v>327</v>
-      </c>
+      <c r="H226" s="55"/>
       <c r="J226" s="51" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="227" spans="2:21">
-      <c r="B227" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="C227" s="38" t="s">
-        <v>13</v>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="227" spans="2:19">
+      <c r="B227" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C227" s="39" t="s">
+        <v>251</v>
       </c>
       <c r="D227" s="55" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E227" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="F227" s="38"/>
-      <c r="G227" s="38"/>
-      <c r="H227" s="38"/>
-      <c r="J227" s="55" t="s">
+      <c r="F227" s="55"/>
+      <c r="G227" s="55"/>
+      <c r="H227" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="J227" s="51" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="228" spans="2:19">
+      <c r="B228" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="K227" s="49"/>
-      <c r="L227" s="50"/>
-      <c r="M227" s="50"/>
-      <c r="N227" s="50"/>
-      <c r="O227" s="50"/>
-      <c r="P227" s="50"/>
-      <c r="Q227" s="50"/>
-      <c r="R227" s="50"/>
-    </row>
-    <row r="228" spans="2:21">
-      <c r="B228" s="55"/>
-      <c r="C228" s="39"/>
-      <c r="D228" s="55"/>
-      <c r="E228" s="55"/>
+      <c r="C228" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="E228" s="55" t="s">
+        <v>312</v>
+      </c>
       <c r="F228" s="38"/>
       <c r="G228" s="38"/>
-      <c r="H228" s="40"/>
-      <c r="J228" s="55"/>
-    </row>
-    <row r="229" spans="2:21">
-      <c r="B229" s="43"/>
-      <c r="C229" s="42"/>
-      <c r="D229" s="43"/>
-      <c r="E229" s="43"/>
-      <c r="F229" s="43"/>
-      <c r="G229" s="43"/>
-      <c r="H229" s="44"/>
-      <c r="J229" s="43"/>
-    </row>
-    <row r="230" spans="2:21">
+      <c r="H228" s="38"/>
+      <c r="J228" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="K228" s="49"/>
+      <c r="L228" s="50"/>
+      <c r="M228" s="50"/>
+      <c r="N228" s="50"/>
+      <c r="O228" s="50"/>
+      <c r="P228" s="50"/>
+      <c r="Q228" s="50"/>
+      <c r="R228" s="50"/>
+    </row>
+    <row r="229" spans="2:19">
+      <c r="B229" s="55"/>
+      <c r="C229" s="39"/>
+      <c r="D229" s="55"/>
+      <c r="E229" s="55"/>
+      <c r="F229" s="38"/>
+      <c r="G229" s="38"/>
+      <c r="H229" s="40"/>
+      <c r="J229" s="55"/>
+    </row>
+    <row r="230" spans="2:19">
       <c r="B230" s="43"/>
       <c r="C230" s="42"/>
       <c r="D230" s="43"/>
@@ -13370,80 +13455,64 @@
       <c r="H230" s="44"/>
       <c r="J230" s="43"/>
     </row>
-    <row r="232" spans="2:21">
-      <c r="B232" s="48" t="s">
+    <row r="231" spans="2:19">
+      <c r="B231" s="43"/>
+      <c r="C231" s="42"/>
+      <c r="D231" s="43"/>
+      <c r="E231" s="43"/>
+      <c r="F231" s="43"/>
+      <c r="G231" s="43"/>
+      <c r="H231" s="44"/>
+      <c r="J231" s="43"/>
+    </row>
+    <row r="233" spans="2:19">
+      <c r="B233" s="48" t="s">
         <v>441</v>
       </c>
-      <c r="J232" s="48" t="s">
+      <c r="J233" s="48" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="233" spans="2:21">
-      <c r="B233" s="48" t="s">
+    <row r="234" spans="2:19">
+      <c r="B234" s="48" t="s">
         <v>475</v>
       </c>
-      <c r="J233" s="48" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="234" spans="2:21">
-      <c r="B234" s="38" t="s">
+      <c r="J234" s="48" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="235" spans="2:19">
+      <c r="B235" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C234" s="38" t="s">
+      <c r="C235" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D234" s="38" t="s">
+      <c r="D235" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E234" s="38" t="s">
+      <c r="E235" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F234" s="55" t="s">
+      <c r="F235" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="G234" s="55" t="s">
+      <c r="G235" s="55" t="s">
         <v>465</v>
       </c>
-      <c r="H234" s="38" t="s">
+      <c r="H235" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="J234" s="38" t="s">
+      <c r="J235" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="2:21" ht="15">
-      <c r="B235" s="55" t="s">
+    <row r="236" spans="2:19" ht="15">
+      <c r="B236" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="C235" s="38" t="s">
+      <c r="C236" s="38" t="s">
         <v>59</v>
-      </c>
-      <c r="D235" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="E235" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="F235" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="G235" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="H235" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="J235" s="55" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="236" spans="2:21" ht="15">
-      <c r="B236" s="55" t="s">
-        <v>457</v>
-      </c>
-      <c r="C236" s="55" t="s">
-        <v>247</v>
       </c>
       <c r="D236" s="61" t="s">
         <v>303</v>
@@ -13451,133 +13520,128 @@
       <c r="E236" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="F236" s="38"/>
-      <c r="G236" s="38"/>
-      <c r="H236" s="38"/>
+      <c r="F236" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="G236" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="H236" s="55" t="s">
+        <v>330</v>
+      </c>
       <c r="J236" s="55" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="237" spans="2:21" ht="15">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="237" spans="2:19" ht="15">
       <c r="B237" s="55" t="s">
-        <v>302</v>
+        <v>457</v>
       </c>
       <c r="C237" s="55" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="D237" s="61" t="s">
         <v>303</v>
       </c>
       <c r="E237" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F237" s="38"/>
       <c r="G237" s="38"/>
       <c r="H237" s="38"/>
       <c r="J237" s="55" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="238" spans="2:21" ht="15">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="238" spans="2:19" ht="15">
       <c r="B238" s="55" t="s">
-        <v>456</v>
-      </c>
-      <c r="C238" s="51" t="s">
-        <v>482</v>
+        <v>302</v>
+      </c>
+      <c r="C238" s="55" t="s">
+        <v>209</v>
       </c>
       <c r="D238" s="61" t="s">
         <v>303</v>
       </c>
       <c r="E238" s="55" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F238" s="38"/>
       <c r="G238" s="38"/>
       <c r="H238" s="38"/>
       <c r="J238" s="55" t="s">
-        <v>540</v>
-      </c>
-      <c r="K238" s="64"/>
-      <c r="L238" s="64"/>
-      <c r="M238" s="64"/>
-      <c r="N238" s="64"/>
-      <c r="O238" s="64"/>
-      <c r="P238" s="64"/>
-      <c r="Q238" s="64"/>
-      <c r="R238" s="64"/>
-      <c r="S238" s="64"/>
-    </row>
-    <row r="239" spans="2:21" ht="15">
-      <c r="B239" s="51" t="s">
-        <v>360</v>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="239" spans="2:19" ht="15">
+      <c r="B239" s="55" t="s">
+        <v>456</v>
       </c>
       <c r="C239" s="51" t="s">
-        <v>270</v>
+        <v>482</v>
       </c>
       <c r="D239" s="61" t="s">
         <v>303</v>
       </c>
       <c r="E239" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F239" s="38"/>
       <c r="G239" s="38"/>
-      <c r="H239" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="J239" s="51" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="240" spans="2:21">
-      <c r="B240" s="55" t="s">
-        <v>367</v>
-      </c>
-      <c r="C240" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="D240" s="55" t="s">
-        <v>355</v>
+      <c r="H239" s="38"/>
+      <c r="J239" s="55" t="s">
+        <v>534</v>
+      </c>
+      <c r="K239" s="64"/>
+      <c r="L239" s="64"/>
+      <c r="M239" s="64"/>
+      <c r="N239" s="64"/>
+      <c r="O239" s="64"/>
+      <c r="P239" s="64"/>
+      <c r="Q239" s="64"/>
+      <c r="R239" s="64"/>
+      <c r="S239" s="64"/>
+    </row>
+    <row r="240" spans="2:19" ht="15">
+      <c r="B240" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="C240" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="D240" s="61" t="s">
+        <v>303</v>
       </c>
       <c r="E240" s="55" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F240" s="38"/>
       <c r="G240" s="38"/>
-      <c r="H240" s="38"/>
-      <c r="J240" s="55" t="s">
-        <v>522</v>
-      </c>
-      <c r="K240" s="49"/>
-      <c r="L240" s="49"/>
-      <c r="M240" s="49"/>
-      <c r="N240" s="49"/>
-      <c r="O240" s="49"/>
-      <c r="P240" s="49"/>
-      <c r="Q240" s="49"/>
-      <c r="R240" s="49"/>
-      <c r="S240" s="49"/>
-      <c r="T240" s="49"/>
-      <c r="U240" s="49"/>
+      <c r="H240" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J240" s="51" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="241" spans="2:21">
-      <c r="B241" s="51" t="s">
-        <v>359</v>
+      <c r="B241" s="55" t="s">
+        <v>367</v>
       </c>
       <c r="C241" s="39" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D241" s="55" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="E241" s="55" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F241" s="38"/>
       <c r="G241" s="38"/>
       <c r="H241" s="38"/>
-      <c r="J241" s="51" t="s">
-        <v>359</v>
+      <c r="J241" s="55" t="s">
+        <v>516</v>
       </c>
       <c r="K241" s="49"/>
       <c r="L241" s="49"/>
@@ -13593,13 +13657,13 @@
     </row>
     <row r="242" spans="2:21">
       <c r="B242" s="51" t="s">
-        <v>356</v>
-      </c>
-      <c r="C242" s="51" t="s">
-        <v>442</v>
+        <v>359</v>
+      </c>
+      <c r="C242" s="39" t="s">
+        <v>300</v>
       </c>
       <c r="D242" s="55" t="s">
-        <v>355</v>
+        <v>313</v>
       </c>
       <c r="E242" s="55" t="s">
         <v>305</v>
@@ -13608,78 +13672,78 @@
       <c r="G242" s="38"/>
       <c r="H242" s="38"/>
       <c r="J242" s="51" t="s">
-        <v>519</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="K242" s="49"/>
+      <c r="L242" s="49"/>
+      <c r="M242" s="49"/>
+      <c r="N242" s="49"/>
+      <c r="O242" s="49"/>
+      <c r="P242" s="49"/>
+      <c r="Q242" s="49"/>
+      <c r="R242" s="49"/>
+      <c r="S242" s="49"/>
+      <c r="T242" s="49"/>
+      <c r="U242" s="49"/>
     </row>
     <row r="243" spans="2:21">
       <c r="B243" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C243" s="51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D243" s="55" t="s">
         <v>355</v>
       </c>
       <c r="E243" s="55" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F243" s="38"/>
       <c r="G243" s="38"/>
       <c r="H243" s="38"/>
       <c r="J243" s="51" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="244" spans="2:21" ht="15">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="244" spans="2:21">
       <c r="B244" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="C244" s="39" t="s">
-        <v>278</v>
-      </c>
-      <c r="D244" s="61" t="s">
-        <v>303</v>
+        <v>357</v>
+      </c>
+      <c r="C244" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="D244" s="55" t="s">
+        <v>355</v>
       </c>
       <c r="E244" s="55" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F244" s="38"/>
       <c r="G244" s="38"/>
       <c r="H244" s="38"/>
       <c r="J244" s="51" t="s">
-        <v>535</v>
-      </c>
-      <c r="K244" s="49"/>
-      <c r="L244" s="49"/>
-      <c r="M244" s="49"/>
-      <c r="N244" s="49"/>
-      <c r="O244" s="49"/>
-      <c r="P244" s="49"/>
-      <c r="Q244" s="49"/>
-      <c r="R244" s="49"/>
-      <c r="S244" s="49"/>
-      <c r="T244" s="49"/>
-      <c r="U244" s="49"/>
-    </row>
-    <row r="245" spans="2:21">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="245" spans="2:21" ht="15">
       <c r="B245" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="C245" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="D245" s="55" t="s">
-        <v>308</v>
+        <v>415</v>
+      </c>
+      <c r="C245" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="D245" s="61" t="s">
+        <v>303</v>
       </c>
       <c r="E245" s="55" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F245" s="38"/>
       <c r="G245" s="38"/>
       <c r="H245" s="38"/>
       <c r="J245" s="51" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="K245" s="49"/>
       <c r="L245" s="49"/>
@@ -13695,10 +13759,10 @@
     </row>
     <row r="246" spans="2:21">
       <c r="B246" s="51" t="s">
-        <v>433</v>
-      </c>
-      <c r="C246" s="39" t="s">
-        <v>292</v>
+        <v>416</v>
+      </c>
+      <c r="C246" s="51" t="s">
+        <v>291</v>
       </c>
       <c r="D246" s="55" t="s">
         <v>308</v>
@@ -13710,15 +13774,26 @@
       <c r="G246" s="38"/>
       <c r="H246" s="38"/>
       <c r="J246" s="51" t="s">
-        <v>517</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="K246" s="49"/>
+      <c r="L246" s="49"/>
+      <c r="M246" s="49"/>
+      <c r="N246" s="49"/>
+      <c r="O246" s="49"/>
+      <c r="P246" s="49"/>
+      <c r="Q246" s="49"/>
+      <c r="R246" s="49"/>
+      <c r="S246" s="49"/>
+      <c r="T246" s="49"/>
+      <c r="U246" s="49"/>
     </row>
     <row r="247" spans="2:21">
       <c r="B247" s="51" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C247" s="39" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D247" s="55" t="s">
         <v>308</v>
@@ -13730,57 +13805,57 @@
       <c r="G247" s="38"/>
       <c r="H247" s="38"/>
       <c r="J247" s="51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="248" spans="2:21" ht="15">
-      <c r="B248" s="55" t="s">
-        <v>347</v>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="248" spans="2:21">
+      <c r="B248" s="51" t="s">
+        <v>431</v>
       </c>
       <c r="C248" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="D248" s="61" t="s">
-        <v>303</v>
+        <v>294</v>
+      </c>
+      <c r="D248" s="55" t="s">
+        <v>308</v>
       </c>
       <c r="E248" s="55" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F248" s="38"/>
       <c r="G248" s="38"/>
-      <c r="H248" s="56" t="s">
-        <v>417</v>
-      </c>
-      <c r="J248" s="55" t="s">
+      <c r="H248" s="38"/>
+      <c r="J248" s="51" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="249" spans="2:21" ht="15">
+      <c r="B249" s="55" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="249" spans="2:21">
-      <c r="B249" s="51" t="s">
-        <v>500</v>
-      </c>
       <c r="C249" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="D249" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="D249" s="61" t="s">
         <v>303</v>
       </c>
       <c r="E249" s="55" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F249" s="38"/>
       <c r="G249" s="38"/>
-      <c r="H249" s="38"/>
-      <c r="J249" s="51" t="s">
-        <v>509</v>
+      <c r="H249" s="56" t="s">
+        <v>417</v>
+      </c>
+      <c r="J249" s="55" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="250" spans="2:21">
       <c r="B250" s="51" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C250" s="39" t="s">
-        <v>501</v>
+        <v>268</v>
       </c>
       <c r="D250" s="55" t="s">
         <v>303</v>
@@ -13792,35 +13867,35 @@
       <c r="G250" s="38"/>
       <c r="H250" s="38"/>
       <c r="J250" s="51" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="251" spans="2:21">
       <c r="B251" s="51" t="s">
-        <v>324</v>
+        <v>498</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>84</v>
+        <v>497</v>
       </c>
       <c r="D251" s="55" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="E251" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="F251" s="55"/>
-      <c r="G251" s="55"/>
-      <c r="H251" s="55"/>
+        <v>304</v>
+      </c>
+      <c r="F251" s="38"/>
+      <c r="G251" s="38"/>
+      <c r="H251" s="38"/>
       <c r="J251" s="51" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="252" spans="2:21">
       <c r="B252" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C252" s="39" t="s">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="D252" s="55" t="s">
         <v>326</v>
@@ -13830,60 +13905,70 @@
       </c>
       <c r="F252" s="55"/>
       <c r="G252" s="55"/>
-      <c r="H252" s="55" t="s">
-        <v>327</v>
-      </c>
+      <c r="H252" s="55"/>
       <c r="J252" s="51" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="253" spans="2:21">
-      <c r="B253" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="C253" s="38" t="s">
-        <v>13</v>
+      <c r="B253" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C253" s="39" t="s">
+        <v>251</v>
       </c>
       <c r="D253" s="55" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E253" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="F253" s="38"/>
-      <c r="G253" s="38"/>
-      <c r="H253" s="38"/>
-      <c r="J253" s="55" t="s">
+      <c r="F253" s="55"/>
+      <c r="G253" s="55"/>
+      <c r="H253" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="J253" s="51" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="254" spans="2:21">
+      <c r="B254" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="K253" s="49"/>
-      <c r="L253" s="50"/>
-      <c r="M253" s="50"/>
-      <c r="N253" s="50"/>
-      <c r="O253" s="50"/>
-      <c r="P253" s="50"/>
-      <c r="Q253" s="50"/>
-      <c r="R253" s="50"/>
-    </row>
-    <row r="254" spans="2:21">
-      <c r="B254" s="38"/>
-      <c r="C254" s="39"/>
-      <c r="D254" s="38"/>
-      <c r="E254" s="38"/>
+      <c r="C254" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="E254" s="55" t="s">
+        <v>312</v>
+      </c>
       <c r="F254" s="38"/>
       <c r="G254" s="38"/>
-      <c r="H254" s="40"/>
-      <c r="J254" s="38"/>
+      <c r="H254" s="38"/>
+      <c r="J254" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="K254" s="49"/>
+      <c r="L254" s="50"/>
+      <c r="M254" s="50"/>
+      <c r="N254" s="50"/>
+      <c r="O254" s="50"/>
+      <c r="P254" s="50"/>
+      <c r="Q254" s="50"/>
+      <c r="R254" s="50"/>
     </row>
     <row r="255" spans="2:21">
-      <c r="B255" s="43"/>
-      <c r="C255" s="42"/>
-      <c r="D255" s="43"/>
-      <c r="E255" s="43"/>
-      <c r="F255" s="43"/>
-      <c r="G255" s="43"/>
-      <c r="H255" s="44"/>
-      <c r="J255" s="43"/>
+      <c r="B255" s="38"/>
+      <c r="C255" s="39"/>
+      <c r="D255" s="38"/>
+      <c r="E255" s="38"/>
+      <c r="F255" s="38"/>
+      <c r="G255" s="38"/>
+      <c r="H255" s="40"/>
+      <c r="J255" s="38"/>
     </row>
     <row r="256" spans="2:21">
       <c r="B256" s="43"/>
@@ -13895,80 +13980,64 @@
       <c r="H256" s="44"/>
       <c r="J256" s="43"/>
     </row>
-    <row r="258" spans="2:18">
-      <c r="B258" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="J258" s="48" t="s">
-        <v>295</v>
-      </c>
+    <row r="257" spans="2:18">
+      <c r="B257" s="43"/>
+      <c r="C257" s="42"/>
+      <c r="D257" s="43"/>
+      <c r="E257" s="43"/>
+      <c r="F257" s="43"/>
+      <c r="G257" s="43"/>
+      <c r="H257" s="44"/>
+      <c r="J257" s="43"/>
     </row>
     <row r="259" spans="2:18">
       <c r="B259" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="J259" s="48" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="260" spans="2:18">
+      <c r="B260" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="J259" s="48" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="260" spans="2:18">
-      <c r="B260" s="38" t="s">
+      <c r="J260" s="48" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="261" spans="2:18">
+      <c r="B261" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C260" s="38" t="s">
+      <c r="C261" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D260" s="38" t="s">
+      <c r="D261" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E260" s="38" t="s">
+      <c r="E261" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F260" s="55" t="s">
+      <c r="F261" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="G260" s="55" t="s">
+      <c r="G261" s="55" t="s">
         <v>465</v>
       </c>
-      <c r="H260" s="38" t="s">
+      <c r="H261" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="J260" s="38" t="s">
+      <c r="J261" s="38" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="261" spans="2:18" ht="15">
-      <c r="B261" s="55" t="s">
-        <v>349</v>
-      </c>
-      <c r="C261" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="D261" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="E261" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="F261" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="G261" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="H261" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="J261" s="55" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="262" spans="2:18" ht="15">
       <c r="B262" s="55" t="s">
-        <v>426</v>
+        <v>349</v>
       </c>
       <c r="C262" s="55" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="D262" s="61" t="s">
         <v>303</v>
@@ -13976,85 +14045,89 @@
       <c r="E262" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="F262" s="38"/>
-      <c r="G262" s="38"/>
+      <c r="F262" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="G262" s="55" t="s">
+        <v>314</v>
+      </c>
       <c r="H262" s="55" t="s">
-        <v>454</v>
+        <v>330</v>
       </c>
       <c r="J262" s="55" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="263" spans="2:18">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="263" spans="2:18" ht="15">
       <c r="B263" s="55" t="s">
-        <v>462</v>
-      </c>
-      <c r="C263" s="51" t="s">
-        <v>450</v>
-      </c>
-      <c r="D263" s="55" t="s">
-        <v>339</v>
+        <v>426</v>
+      </c>
+      <c r="C263" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D263" s="61" t="s">
+        <v>303</v>
       </c>
       <c r="E263" s="55" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F263" s="38"/>
       <c r="G263" s="38"/>
       <c r="H263" s="55" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J263" s="55" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
     </row>
     <row r="264" spans="2:18">
-      <c r="B264" s="51" t="s">
-        <v>418</v>
-      </c>
-      <c r="C264" s="39" t="s">
-        <v>275</v>
+      <c r="B264" s="55" t="s">
+        <v>462</v>
+      </c>
+      <c r="C264" s="51" t="s">
+        <v>450</v>
       </c>
       <c r="D264" s="55" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="E264" s="55" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="F264" s="38"/>
       <c r="G264" s="38"/>
-      <c r="H264" s="40"/>
-      <c r="J264" s="51" t="s">
+      <c r="H264" s="55" t="s">
+        <v>453</v>
+      </c>
+      <c r="J264" s="55" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="265" spans="2:18">
+      <c r="B265" s="51" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="265" spans="2:18" ht="43.2">
-      <c r="B265" s="51" t="s">
-        <v>351</v>
-      </c>
       <c r="C265" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="D265" s="61" t="s">
-        <v>303</v>
+        <v>275</v>
+      </c>
+      <c r="D265" s="55" t="s">
+        <v>308</v>
       </c>
       <c r="E265" s="55" t="s">
         <v>305</v>
       </c>
       <c r="F265" s="38"/>
       <c r="G265" s="38"/>
-      <c r="H265" s="56" t="s">
-        <v>419</v>
-      </c>
+      <c r="H265" s="40"/>
       <c r="J265" s="51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="266" spans="2:18" ht="43.2">
+      <c r="B266" s="51" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="266" spans="2:18" ht="15">
-      <c r="B266" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="C266" s="51" t="s">
-        <v>263</v>
+      <c r="C266" s="39" t="s">
+        <v>276</v>
       </c>
       <c r="D266" s="61" t="s">
         <v>303</v>
@@ -14065,39 +14138,41 @@
       <c r="F266" s="38"/>
       <c r="G266" s="38"/>
       <c r="H266" s="56" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="J266" s="51" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="267" spans="2:18" ht="15">
+      <c r="B267" s="51" t="s">
         <v>401</v>
       </c>
-      <c r="K266" s="48"/>
-    </row>
-    <row r="267" spans="2:18">
-      <c r="B267" s="51" t="s">
-        <v>500</v>
-      </c>
-      <c r="C267" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="D267" s="55" t="s">
+      <c r="C267" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D267" s="61" t="s">
         <v>303</v>
       </c>
       <c r="E267" s="55" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F267" s="38"/>
       <c r="G267" s="38"/>
-      <c r="H267" s="38"/>
+      <c r="H267" s="56" t="s">
+        <v>402</v>
+      </c>
       <c r="J267" s="51" t="s">
-        <v>509</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="K267" s="48"/>
     </row>
     <row r="268" spans="2:18">
       <c r="B268" s="51" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C268" s="39" t="s">
-        <v>501</v>
+        <v>268</v>
       </c>
       <c r="D268" s="55" t="s">
         <v>303</v>
@@ -14109,35 +14184,35 @@
       <c r="G268" s="38"/>
       <c r="H268" s="38"/>
       <c r="J268" s="51" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="269" spans="2:18">
       <c r="B269" s="51" t="s">
-        <v>324</v>
+        <v>498</v>
       </c>
       <c r="C269" s="39" t="s">
-        <v>84</v>
+        <v>497</v>
       </c>
       <c r="D269" s="55" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="E269" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="F269" s="55"/>
-      <c r="G269" s="55"/>
-      <c r="H269" s="55"/>
+        <v>304</v>
+      </c>
+      <c r="F269" s="38"/>
+      <c r="G269" s="38"/>
+      <c r="H269" s="38"/>
       <c r="J269" s="51" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="270" spans="2:18">
       <c r="B270" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C270" s="39" t="s">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="D270" s="55" t="s">
         <v>326</v>
@@ -14147,125 +14222,119 @@
       </c>
       <c r="F270" s="55"/>
       <c r="G270" s="55"/>
-      <c r="H270" s="55" t="s">
-        <v>327</v>
-      </c>
+      <c r="H270" s="55"/>
       <c r="J270" s="51" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="271" spans="2:18">
-      <c r="B271" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="C271" s="38" t="s">
-        <v>13</v>
+      <c r="B271" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C271" s="39" t="s">
+        <v>251</v>
       </c>
       <c r="D271" s="55" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E271" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="F271" s="38"/>
-      <c r="G271" s="38"/>
-      <c r="H271" s="38"/>
-      <c r="J271" s="55" t="s">
+      <c r="F271" s="55"/>
+      <c r="G271" s="55"/>
+      <c r="H271" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="J271" s="51" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="272" spans="2:18">
+      <c r="B272" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="K271" s="49"/>
-      <c r="L271" s="50"/>
-      <c r="M271" s="50"/>
-      <c r="N271" s="50"/>
-      <c r="O271" s="50"/>
-      <c r="P271" s="50"/>
-      <c r="Q271" s="50"/>
-      <c r="R271" s="50"/>
-    </row>
-    <row r="272" spans="2:18">
-      <c r="B272" s="38"/>
-      <c r="C272" s="39"/>
-      <c r="D272" s="38"/>
-      <c r="E272" s="38"/>
+      <c r="C272" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D272" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="E272" s="55" t="s">
+        <v>312</v>
+      </c>
       <c r="F272" s="38"/>
       <c r="G272" s="38"/>
-      <c r="H272" s="40"/>
-      <c r="J272" s="38"/>
-    </row>
-    <row r="276" spans="2:11">
-      <c r="B276" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="J276" s="48" t="s">
-        <v>297</v>
-      </c>
+      <c r="H272" s="38"/>
+      <c r="J272" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="K272" s="49"/>
+      <c r="L272" s="50"/>
+      <c r="M272" s="50"/>
+      <c r="N272" s="50"/>
+      <c r="O272" s="50"/>
+      <c r="P272" s="50"/>
+      <c r="Q272" s="50"/>
+      <c r="R272" s="50"/>
+    </row>
+    <row r="273" spans="2:11">
+      <c r="B273" s="38"/>
+      <c r="C273" s="39"/>
+      <c r="D273" s="38"/>
+      <c r="E273" s="38"/>
+      <c r="F273" s="38"/>
+      <c r="G273" s="38"/>
+      <c r="H273" s="40"/>
+      <c r="J273" s="38"/>
     </row>
     <row r="277" spans="2:11">
       <c r="B277" s="48" t="s">
+        <v>297</v>
+      </c>
+      <c r="J277" s="48" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="278" spans="2:11">
+      <c r="B278" s="48" t="s">
         <v>477</v>
       </c>
-      <c r="J277" s="48" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="278" spans="2:11">
-      <c r="B278" s="38" t="s">
+      <c r="J278" s="48" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="279" spans="2:11">
+      <c r="B279" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C278" s="38" t="s">
+      <c r="C279" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D278" s="38" t="s">
+      <c r="D279" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E278" s="38" t="s">
+      <c r="E279" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F278" s="55" t="s">
+      <c r="F279" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="G278" s="55" t="s">
+      <c r="G279" s="55" t="s">
         <v>465</v>
       </c>
-      <c r="H278" s="38" t="s">
+      <c r="H279" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="J278" s="38" t="s">
+      <c r="J279" s="38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="2:11" ht="15">
-      <c r="B279" s="55" t="s">
+    <row r="280" spans="2:11" ht="15">
+      <c r="B280" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="C279" s="55" t="s">
+      <c r="C280" s="55" t="s">
         <v>420</v>
-      </c>
-      <c r="D279" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="E279" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="F279" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="G279" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="H279" s="55" t="s">
-        <v>330</v>
-      </c>
-      <c r="J279" s="55" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="280" spans="2:11" ht="15">
-      <c r="B280" s="62" t="s">
-        <v>411</v>
-      </c>
-      <c r="C280" s="55" t="s">
-        <v>242</v>
       </c>
       <c r="D280" s="61" t="s">
         <v>303</v>
@@ -14273,19 +14342,25 @@
       <c r="E280" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="F280" s="38"/>
-      <c r="G280" s="38"/>
-      <c r="H280" s="38"/>
-      <c r="J280" s="62" t="s">
-        <v>536</v>
+      <c r="F280" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="G280" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="H280" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="J280" s="55" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="281" spans="2:11" ht="15">
-      <c r="B281" s="55" t="s">
-        <v>384</v>
+      <c r="B281" s="62" t="s">
+        <v>411</v>
       </c>
       <c r="C281" s="55" t="s">
-        <v>421</v>
+        <v>242</v>
       </c>
       <c r="D281" s="61" t="s">
         <v>303</v>
@@ -14296,58 +14371,56 @@
       <c r="F281" s="38"/>
       <c r="G281" s="38"/>
       <c r="H281" s="38"/>
-      <c r="J281" s="55" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="282" spans="2:11">
-      <c r="B282" s="51" t="s">
-        <v>398</v>
-      </c>
-      <c r="C282" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="D282" s="55" t="s">
-        <v>308</v>
+      <c r="J281" s="62" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="282" spans="2:11" ht="15">
+      <c r="B282" s="55" t="s">
+        <v>384</v>
+      </c>
+      <c r="C282" s="55" t="s">
+        <v>421</v>
+      </c>
+      <c r="D282" s="61" t="s">
+        <v>303</v>
       </c>
       <c r="E282" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F282" s="38"/>
       <c r="G282" s="38"/>
-      <c r="H282" s="40"/>
-      <c r="J282" s="51" t="s">
+      <c r="H282" s="38"/>
+      <c r="J282" s="55" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="283" spans="2:11">
+      <c r="B283" s="51" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="283" spans="2:11" ht="28.8">
-      <c r="B283" s="51" t="s">
-        <v>422</v>
-      </c>
       <c r="C283" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="D283" s="61" t="s">
-        <v>303</v>
+        <v>275</v>
+      </c>
+      <c r="D283" s="55" t="s">
+        <v>308</v>
       </c>
       <c r="E283" s="55" t="s">
         <v>305</v>
       </c>
       <c r="F283" s="38"/>
       <c r="G283" s="38"/>
-      <c r="H283" s="56" t="s">
-        <v>423</v>
-      </c>
+      <c r="H283" s="40"/>
       <c r="J283" s="51" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="284" spans="2:11" ht="28.8">
+      <c r="B284" s="51" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="284" spans="2:11" ht="15">
-      <c r="B284" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="C284" s="51" t="s">
-        <v>263</v>
+      <c r="C284" s="39" t="s">
+        <v>276</v>
       </c>
       <c r="D284" s="61" t="s">
         <v>303</v>
@@ -14358,39 +14431,41 @@
       <c r="F284" s="38"/>
       <c r="G284" s="38"/>
       <c r="H284" s="56" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="J284" s="51" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="285" spans="2:11" ht="15">
+      <c r="B285" s="51" t="s">
         <v>401</v>
       </c>
-      <c r="K284" s="48"/>
-    </row>
-    <row r="285" spans="2:11">
-      <c r="B285" s="51" t="s">
-        <v>500</v>
-      </c>
-      <c r="C285" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="D285" s="55" t="s">
+      <c r="C285" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D285" s="61" t="s">
         <v>303</v>
       </c>
       <c r="E285" s="55" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F285" s="38"/>
       <c r="G285" s="38"/>
-      <c r="H285" s="38"/>
+      <c r="H285" s="56" t="s">
+        <v>402</v>
+      </c>
       <c r="J285" s="51" t="s">
-        <v>509</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="K285" s="48"/>
     </row>
     <row r="286" spans="2:11">
       <c r="B286" s="51" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C286" s="39" t="s">
-        <v>501</v>
+        <v>268</v>
       </c>
       <c r="D286" s="55" t="s">
         <v>303</v>
@@ -14402,35 +14477,35 @@
       <c r="G286" s="38"/>
       <c r="H286" s="38"/>
       <c r="J286" s="51" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="287" spans="2:11">
       <c r="B287" s="51" t="s">
-        <v>324</v>
+        <v>498</v>
       </c>
       <c r="C287" s="39" t="s">
-        <v>84</v>
+        <v>497</v>
       </c>
       <c r="D287" s="55" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="E287" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="F287" s="55"/>
-      <c r="G287" s="55"/>
-      <c r="H287" s="55"/>
+        <v>304</v>
+      </c>
+      <c r="F287" s="38"/>
+      <c r="G287" s="38"/>
+      <c r="H287" s="38"/>
       <c r="J287" s="51" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="288" spans="2:11">
       <c r="B288" s="51" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C288" s="39" t="s">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="D288" s="55" t="s">
         <v>326</v>
@@ -14440,55 +14515,75 @@
       </c>
       <c r="F288" s="55"/>
       <c r="G288" s="55"/>
-      <c r="H288" s="55" t="s">
-        <v>327</v>
-      </c>
+      <c r="H288" s="55"/>
       <c r="J288" s="51" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="289" spans="2:18">
-      <c r="B289" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="C289" s="38" t="s">
-        <v>13</v>
+      <c r="B289" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C289" s="39" t="s">
+        <v>251</v>
       </c>
       <c r="D289" s="55" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E289" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="F289" s="38"/>
-      <c r="G289" s="38"/>
-      <c r="H289" s="38"/>
-      <c r="J289" s="55" t="s">
+      <c r="F289" s="55"/>
+      <c r="G289" s="55"/>
+      <c r="H289" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="J289" s="51" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="290" spans="2:18">
+      <c r="B290" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="K289" s="49"/>
-      <c r="L289" s="50"/>
-      <c r="M289" s="50"/>
-      <c r="N289" s="50"/>
-      <c r="O289" s="50"/>
-      <c r="P289" s="50"/>
-      <c r="Q289" s="50"/>
-      <c r="R289" s="50"/>
-    </row>
-    <row r="290" spans="2:18">
-      <c r="B290" s="38"/>
-      <c r="C290" s="39"/>
-      <c r="D290" s="38"/>
-      <c r="E290" s="38"/>
+      <c r="C290" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D290" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="E290" s="55" t="s">
+        <v>312</v>
+      </c>
       <c r="F290" s="38"/>
       <c r="G290" s="38"/>
-      <c r="H290" s="40"/>
+      <c r="H290" s="38"/>
+      <c r="J290" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="K290" s="49"/>
+      <c r="L290" s="50"/>
+      <c r="M290" s="50"/>
+      <c r="N290" s="50"/>
+      <c r="O290" s="50"/>
+      <c r="P290" s="50"/>
+      <c r="Q290" s="50"/>
+      <c r="R290" s="50"/>
+    </row>
+    <row r="291" spans="2:18">
+      <c r="B291" s="38"/>
+      <c r="C291" s="39"/>
+      <c r="D291" s="38"/>
+      <c r="E291" s="38"/>
+      <c r="F291" s="38"/>
+      <c r="G291" s="38"/>
+      <c r="H291" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="K24:T25"/>
     <mergeCell ref="K130:S131"/>
-    <mergeCell ref="K238:S238"/>
+    <mergeCell ref="K239:S239"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
